--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="60">
   <si>
     <t>date_time_nst</t>
   </si>
@@ -33,64 +33,79 @@
     <t>bcs_unit</t>
   </si>
   <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>pulling_point_elevation_mm</t>
+  </si>
+  <si>
+    <t>backstrap_length_m</t>
+  </si>
+  <si>
+    <t>bridle_u_length_m</t>
+  </si>
+  <si>
+    <t>bridle_l_length_m</t>
+  </si>
+  <si>
+    <t>sweep_length_m</t>
+  </si>
+  <si>
+    <t>u_bridle_extension_m</t>
+  </si>
+  <si>
+    <t>towing_speed_kn</t>
+  </si>
+  <si>
+    <t>door_m</t>
+  </si>
+  <si>
+    <t>spread_u_wing_m</t>
+  </si>
+  <si>
+    <t>spread_l_wing_m</t>
+  </si>
+  <si>
+    <t>spread_mean_we_m</t>
+  </si>
+  <si>
+    <t>opening_wing_m</t>
+  </si>
+  <si>
+    <t>opening_headline_m</t>
+  </si>
+  <si>
+    <t>height_headline_m</t>
+  </si>
+  <si>
+    <t>bridle_tension_port_t</t>
+  </si>
+  <si>
+    <t>bridle_tension_stbd_t</t>
+  </si>
+  <si>
+    <t>bridle_tension_total_t</t>
+  </si>
+  <si>
+    <t>mouth_area_m2</t>
+  </si>
+  <si>
+    <t>mouth_drag_kgf_m2</t>
+  </si>
+  <si>
+    <t>bridle_angle_deg</t>
+  </si>
+  <si>
+    <t>83-112</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>pulling_point_elevation_m</t>
-  </si>
-  <si>
-    <t>backstrap_length_m</t>
-  </si>
-  <si>
-    <t>bridle_u_length_m</t>
-  </si>
-  <si>
-    <t>bridle_l_length_m</t>
-  </si>
-  <si>
-    <t>sweep_length_m</t>
-  </si>
-  <si>
-    <t>u_bridle_extension_m</t>
-  </si>
-  <si>
-    <t>towing_speed_kn</t>
-  </si>
-  <si>
-    <t>door_m</t>
-  </si>
-  <si>
-    <t>spread_u_wing_m</t>
-  </si>
-  <si>
-    <t>spread_l_wing_m</t>
-  </si>
-  <si>
-    <t>spread_mean_we_m</t>
-  </si>
-  <si>
-    <t>opening_wing_m</t>
-  </si>
-  <si>
-    <t>opening_headline_m</t>
-  </si>
-  <si>
-    <t>height_headline_m</t>
-  </si>
-  <si>
-    <t>bridle_tension_port_t</t>
-  </si>
-  <si>
-    <t>bridle_tension_stbd_t</t>
-  </si>
-  <si>
-    <t>bridle_tension_total_t</t>
-  </si>
-  <si>
-    <t>mouth_area_m2</t>
-  </si>
-  <si>
-    <t>mouth_drag_kgf_m2</t>
-  </si>
-  <si>
-    <t>bridle_angle_deg</t>
   </si>
   <si>
     <t>spread_door_m</t>
@@ -184,8 +199,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -220,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -228,6 +244,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -456,6 +476,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="16.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -535,6 +558,518 @@
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>45670.375</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>17.84</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>2.52*8</f>
+        <v>20.16</v>
+      </c>
+      <c r="R2" s="3">
+        <f>2.37*8</f>
+        <v>18.96</v>
+      </c>
+      <c r="T2" s="3">
+        <f>0.34*8</f>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45670.395833333336</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P3" s="3">
+        <f>2.19*8</f>
+        <v>17.52</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>2.59*8</f>
+        <v>20.72</v>
+      </c>
+      <c r="R3" s="3">
+        <f>2.39*8</f>
+        <v>19.12</v>
+      </c>
+      <c r="T3" s="1">
+        <f>0.29*8</f>
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45670.40277777778</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P4" s="3">
+        <f>2.18*8</f>
+        <v>17.44</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>2.48*8</f>
+        <v>19.84</v>
+      </c>
+      <c r="R4" s="3">
+        <f>2.33*8</f>
+        <v>18.64</v>
+      </c>
+      <c r="T4" s="3">
+        <f>0.25*8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45670.41388888889</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P6" si="1">2.19*8</f>
+        <v>17.52</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>2.52*8</f>
+        <v>20.16</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R6" si="2">2.35*8</f>
+        <v>18.8</v>
+      </c>
+      <c r="T5" s="3">
+        <f>0.21*8</f>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45670.41805555556</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="1"/>
+        <v>17.52</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>2.8*8</f>
+        <v>22.4</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="2"/>
+        <v>18.8</v>
+      </c>
+      <c r="T6" s="3">
+        <f>0.19*8</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45670.42361111111</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P7" s="3">
+        <f>2.18*8</f>
+        <v>17.44</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>2.48*8</f>
+        <v>19.84</v>
+      </c>
+      <c r="R7" s="3">
+        <f>2.33*8</f>
+        <v>18.64</v>
+      </c>
+      <c r="T7" s="3">
+        <f>0.27*8</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45670.430555555555</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P8" s="3">
+        <f>1.56*8</f>
+        <v>12.48</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>1.61*8</f>
+        <v>12.88</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" ref="R8:R9" si="3">1.58*8</f>
+        <v>12.64</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" ref="T8:T9" si="4">0.38*8</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45670.438888888886</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="3">
+        <f>1.57*8</f>
+        <v>12.56</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>1.6*8</f>
+        <v>12.8</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="4"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>644.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="3">
+        <f>1.56*8</f>
+        <v>12.48</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>1.63*8</f>
+        <v>13.04</v>
+      </c>
+      <c r="R10" s="3">
+        <f>1.6*8</f>
+        <v>12.8</v>
+      </c>
+      <c r="T10" s="3">
+        <f>0.45*8</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P11" s="3">
+        <f>2.14*8</f>
+        <v>17.12</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" ref="P12:P13" si="5">2.17*8</f>
+        <v>17.36</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" ref="Q12:Q13" si="6">2.47*8</f>
+        <v>19.76</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12:R13" si="7">2.32*8</f>
+        <v>18.56</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="5"/>
+        <v>17.36</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="6"/>
+        <v>19.76</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="7"/>
+        <v>18.56</v>
+      </c>
+      <c r="T13" s="3">
+        <f>0.24*8</f>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
@@ -575,81 +1110,81 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>45658.0</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -714,20 +1249,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>45658.0</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -792,20 +1327,20 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>45658.0</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -870,20 +1405,20 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>45658.0</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -948,20 +1483,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>45658.0</v>
       </c>
       <c r="B6" s="1">
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1026,20 +1561,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>45658.0</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1104,20 +1639,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>45658.0</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1182,20 +1717,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>45658.0</v>
       </c>
       <c r="B9" s="1">
         <v>2.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1260,20 +1795,20 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>45658.0</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1338,20 +1873,20 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>45658.0</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -1416,20 +1951,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>45658.0</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -1494,20 +2029,20 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>45658.0</v>
       </c>
       <c r="B13" s="1">
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1572,20 +2107,20 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>45658.0</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1650,20 +2185,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>45658.0</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1728,20 +2263,20 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>45658.0</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1806,20 +2341,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>45658.0</v>
       </c>
       <c r="B17" s="1">
         <v>4.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1903,11 +2438,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1915,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1923,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1931,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1947,167 +2482,167 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="78">
   <si>
     <t>date_time_nst</t>
   </si>
@@ -120,7 +120,7 @@
     <t>empty</t>
   </si>
   <si>
-    <t>truncated</t>
+    <t>short</t>
   </si>
   <si>
     <t>PNE</t>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>EBS+65</t>
+  </si>
+  <si>
+    <t>GOA/AI_v0</t>
+  </si>
+  <si>
+    <t>GOA/AI_v1</t>
+  </si>
+  <si>
+    <t>GOA/AI_v2</t>
+  </si>
+  <si>
+    <t>GOA/AI_v3</t>
+  </si>
+  <si>
+    <t>GOA/AI_v4</t>
+  </si>
+  <si>
+    <t>GOA/AI_v5</t>
+  </si>
+  <si>
+    <t>GOA/AI_v6</t>
   </si>
   <si>
     <t>pulling_point_elevation_m</t>
@@ -354,7 +375,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AF1073" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AF1072" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="32">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1532,7 +1553,7 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1573,10 +1594,7 @@
         <v>21.44</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="3">
-        <f>0.19*8</f>
-        <v>1.52</v>
-      </c>
+      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1597,7 +1615,7 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1662,7 +1680,7 @@
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2650,7 +2668,7 @@
       <c r="D31" s="1">
         <v>2.0</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2716,7 +2734,7 @@
       <c r="D32" s="1">
         <v>2.0</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2782,7 +2800,7 @@
       <c r="D33" s="1">
         <v>2.0</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2848,7 +2866,7 @@
       <c r="D34" s="1">
         <v>2.0</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -8137,8 +8155,8 @@
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="2">
-        <f>0.49*8</f>
-        <v>3.92</v>
+        <f>0.74*8</f>
+        <v>5.92</v>
       </c>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
@@ -8151,29 +8169,61 @@
     </row>
     <row r="113">
       <c r="A113" s="3"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="3"/>
+      <c r="B113" s="2">
+        <v>104.0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H113" s="3"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="I113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-      <c r="P113" s="1"/>
+      <c r="P113" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
+      <c r="R113" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S113" s="3">
+        <f>2.14*8</f>
+        <v>17.12</v>
+      </c>
       <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
+      <c r="U113" s="3">
+        <f>2.36*8</f>
+        <v>18.88</v>
+      </c>
+      <c r="V113" s="3">
+        <f t="shared" ref="V113:V114" si="54">2.25*8</f>
+        <v>18</v>
+      </c>
       <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
+      <c r="X113" s="3">
+        <f>0.37*8</f>
+        <v>2.96</v>
+      </c>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
@@ -8185,29 +8235,62 @@
     </row>
     <row r="114">
       <c r="A114" s="3"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="3"/>
+      <c r="B114" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H114" s="3"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="I114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="1"/>
+      <c r="P114" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
+      <c r="R114" s="3">
+        <f>17</f>
+        <v>17</v>
+      </c>
+      <c r="S114" s="3">
+        <f t="shared" ref="S114:S115" si="55">2.15*8</f>
+        <v>17.2</v>
+      </c>
       <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
+      <c r="U114" s="3">
+        <f>2.35*8</f>
+        <v>18.8</v>
+      </c>
+      <c r="V114" s="3">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
       <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
+      <c r="X114" s="3">
+        <f>0.31*8</f>
+        <v>2.48</v>
+      </c>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
@@ -8219,29 +8302,61 @@
     </row>
     <row r="115">
       <c r="A115" s="3"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="3"/>
+      <c r="B115" s="2">
+        <v>106.0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H115" s="3"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="I115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="1"/>
+      <c r="P115" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
+      <c r="R115" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S115" s="3">
+        <f t="shared" si="55"/>
+        <v>17.2</v>
+      </c>
       <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
+      <c r="U115" s="3">
+        <f>2.33*8</f>
+        <v>18.64</v>
+      </c>
+      <c r="V115" s="3">
+        <f t="shared" ref="V115:V117" si="56">2.24*8</f>
+        <v>17.92</v>
+      </c>
       <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
+      <c r="X115" s="3">
+        <f>0.32*8</f>
+        <v>2.56</v>
+      </c>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
@@ -8253,29 +8368,61 @@
     </row>
     <row r="116">
       <c r="A116" s="3"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="3"/>
+      <c r="B116" s="2">
+        <v>107.0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H116" s="3"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="I116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="1"/>
+      <c r="P116" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
+      <c r="R116" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S116" s="3">
+        <f>2.13*8</f>
+        <v>17.04</v>
+      </c>
       <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
+      <c r="U116" s="3">
+        <f t="shared" ref="U116:U117" si="57">2.34*8</f>
+        <v>18.72</v>
+      </c>
+      <c r="V116" s="3">
+        <f t="shared" si="56"/>
+        <v>17.92</v>
+      </c>
       <c r="W116" s="3"/>
-      <c r="X116" s="3"/>
+      <c r="X116" s="3">
+        <f>0.4*8</f>
+        <v>3.2</v>
+      </c>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
@@ -8287,29 +8434,61 @@
     </row>
     <row r="117">
       <c r="A117" s="3"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="3"/>
+      <c r="B117" s="2">
+        <v>108.0</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H117" s="3"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="I117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="1"/>
+      <c r="P117" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
+      <c r="R117" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S117" s="3">
+        <f>2.12*8</f>
+        <v>16.96</v>
+      </c>
       <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
+      <c r="U117" s="3">
+        <f t="shared" si="57"/>
+        <v>18.72</v>
+      </c>
+      <c r="V117" s="2">
+        <f t="shared" si="56"/>
+        <v>17.92</v>
+      </c>
       <c r="W117" s="3"/>
-      <c r="X117" s="3"/>
+      <c r="X117" s="3">
+        <f>0.48*8</f>
+        <v>3.84</v>
+      </c>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
@@ -8321,29 +8500,61 @@
     </row>
     <row r="118">
       <c r="A118" s="3"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="3"/>
+      <c r="B118" s="2">
+        <v>109.0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="I118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="1"/>
+      <c r="P118" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
+      <c r="R118" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S118" s="3">
+        <f>1.99*8</f>
+        <v>15.92</v>
+      </c>
       <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
+      <c r="U118" s="3">
+        <f>2.15*8</f>
+        <v>17.2</v>
+      </c>
+      <c r="V118" s="3">
+        <f>2.07*8</f>
+        <v>16.56</v>
+      </c>
       <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
+      <c r="X118" s="2">
+        <f>0.53*8</f>
+        <v>4.24</v>
+      </c>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
@@ -8355,29 +8566,61 @@
     </row>
     <row r="119">
       <c r="A119" s="3"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="3"/>
+      <c r="B119" s="2">
+        <v>110.0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H119" s="3"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="I119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="1"/>
+      <c r="P119" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
+      <c r="R119" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S119" s="3">
+        <f>1.98*8</f>
+        <v>15.84</v>
+      </c>
       <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
+      <c r="U119" s="3">
+        <f>2.18*8</f>
+        <v>17.44</v>
+      </c>
+      <c r="V119" s="3">
+        <f>2.06*8</f>
+        <v>16.48</v>
+      </c>
       <c r="W119" s="3"/>
-      <c r="X119" s="3"/>
+      <c r="X119" s="3">
+        <f>0.72*8</f>
+        <v>5.76</v>
+      </c>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
@@ -8389,29 +8632,61 @@
     </row>
     <row r="120">
       <c r="A120" s="3"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="3"/>
+      <c r="B120" s="2">
+        <v>111.0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H120" s="3"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="I120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="1"/>
+      <c r="P120" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
+      <c r="R120" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S120" s="3">
+        <f>2.11*8</f>
+        <v>16.88</v>
+      </c>
       <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
+      <c r="U120" s="3">
+        <f>2.3*8</f>
+        <v>18.4</v>
+      </c>
+      <c r="V120" s="3">
+        <f>2.22*8</f>
+        <v>17.76</v>
+      </c>
       <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
+      <c r="X120" s="3">
+        <f>0.48*8</f>
+        <v>3.84</v>
+      </c>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
@@ -8423,29 +8698,61 @@
     </row>
     <row r="121">
       <c r="A121" s="3"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="3"/>
+      <c r="B121" s="2">
+        <v>112.0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H121" s="3"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="I121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
-      <c r="P121" s="1"/>
+      <c r="P121" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="3"/>
+      <c r="R121" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="S121" s="3">
+        <f t="shared" ref="S121:S122" si="58">2.51*8</f>
+        <v>20.08</v>
+      </c>
       <c r="T121" s="3"/>
-      <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
+      <c r="U121" s="3">
+        <f>2.86*8</f>
+        <v>22.88</v>
+      </c>
+      <c r="V121" s="3">
+        <f>2.69*9</f>
+        <v>24.21</v>
+      </c>
       <c r="W121" s="3"/>
-      <c r="X121" s="3"/>
+      <c r="X121" s="3">
+        <f>8*0.52</f>
+        <v>4.16</v>
+      </c>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
@@ -8457,29 +8764,61 @@
     </row>
     <row r="122">
       <c r="A122" s="3"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="3"/>
+      <c r="B122" s="2">
+        <v>113.0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H122" s="3"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="1"/>
+      <c r="P122" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
+      <c r="R122" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="S122" s="3">
+        <f t="shared" si="58"/>
+        <v>20.08</v>
+      </c>
       <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
+      <c r="U122" s="3">
+        <f>8*2.86</f>
+        <v>22.88</v>
+      </c>
+      <c r="V122" s="3">
+        <f>8*2.69</f>
+        <v>21.52</v>
+      </c>
       <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
+      <c r="X122" s="3">
+        <f>8*0.44</f>
+        <v>3.52</v>
+      </c>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
@@ -8491,29 +8830,58 @@
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="3"/>
+      <c r="B123" s="2">
+        <v>114.0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H123" s="3"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="I123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J123" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="1"/>
+      <c r="P123" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
+      <c r="R123" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="S123" s="3">
+        <f>2.49*8</f>
+        <v>19.92</v>
+      </c>
       <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
+      <c r="U123" s="3">
+        <f>8*2.82</f>
+        <v>22.56</v>
+      </c>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
+      <c r="X123" s="3">
+        <f>0.38*8</f>
+        <v>3.04</v>
+      </c>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
@@ -8525,29 +8893,61 @@
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="3"/>
+      <c r="B124" s="2">
+        <v>115.0</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H124" s="3"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="I124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J124" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="1"/>
+      <c r="P124" s="2">
+        <v>2.0</v>
+      </c>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
+      <c r="R124" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S124" s="3">
+        <f>2.18*8</f>
+        <v>17.44</v>
+      </c>
       <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
+      <c r="U124" s="3">
+        <f>2.43*8</f>
+        <v>19.44</v>
+      </c>
+      <c r="V124" s="3">
+        <f>2.3*8</f>
+        <v>18.4</v>
+      </c>
       <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
+      <c r="X124" s="3">
+        <f>0.79*8</f>
+        <v>6.32</v>
+      </c>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
@@ -8559,29 +8959,61 @@
     </row>
     <row r="125">
       <c r="A125" s="3"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="3"/>
+      <c r="B125" s="2">
+        <v>116.0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="I125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J125" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="1"/>
+      <c r="P125" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
+      <c r="R125" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S125" s="3">
+        <f t="shared" ref="S125:S126" si="59">8*2.18</f>
+        <v>17.44</v>
+      </c>
       <c r="T125" s="3"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
+      <c r="U125" s="3">
+        <f>2.44*8</f>
+        <v>19.52</v>
+      </c>
+      <c r="V125" s="3">
+        <f>2.31*8</f>
+        <v>18.48</v>
+      </c>
       <c r="W125" s="3"/>
-      <c r="X125" s="3"/>
+      <c r="X125" s="3">
+        <f>8*0.68</f>
+        <v>5.44</v>
+      </c>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
@@ -8593,29 +9025,61 @@
     </row>
     <row r="126">
       <c r="A126" s="3"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="3"/>
+      <c r="B126" s="2">
+        <v>117.0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H126" s="3"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="I126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J126" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="1"/>
+      <c r="P126" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
+      <c r="R126" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S126" s="3">
+        <f t="shared" si="59"/>
+        <v>17.44</v>
+      </c>
       <c r="T126" s="3"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
+      <c r="U126" s="3">
+        <f t="shared" ref="U126:U127" si="60">8*2.45</f>
+        <v>19.6</v>
+      </c>
+      <c r="V126" s="3">
+        <f>8*2.31</f>
+        <v>18.48</v>
+      </c>
       <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
+      <c r="X126" s="2">
+        <f>0.6*8</f>
+        <v>4.8</v>
+      </c>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
@@ -8627,29 +9091,61 @@
     </row>
     <row r="127">
       <c r="A127" s="3"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="3"/>
+      <c r="B127" s="2">
+        <v>118.0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="I127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="1"/>
+      <c r="P127" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
+      <c r="R127" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S127" s="3">
+        <f>2.2*8</f>
+        <v>17.6</v>
+      </c>
       <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
+      <c r="U127" s="3">
+        <f t="shared" si="60"/>
+        <v>19.6</v>
+      </c>
+      <c r="V127" s="3">
+        <f>8*2.32</f>
+        <v>18.56</v>
+      </c>
       <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
+      <c r="X127" s="3">
+        <f>8*0.53</f>
+        <v>4.24</v>
+      </c>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
@@ -8661,29 +9157,61 @@
     </row>
     <row r="128">
       <c r="A128" s="3"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="3"/>
+      <c r="B128" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H128" s="3"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="I128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J128" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="1"/>
+      <c r="P128" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
+      <c r="R128" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S128" s="3">
+        <f>8*2.19</f>
+        <v>17.52</v>
+      </c>
       <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
+      <c r="U128" s="3">
+        <f>2.46*8</f>
+        <v>19.68</v>
+      </c>
+      <c r="V128" s="3">
+        <f>2.32*8</f>
+        <v>18.56</v>
+      </c>
       <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
+      <c r="X128" s="3">
+        <f>8*0.46</f>
+        <v>3.68</v>
+      </c>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
@@ -8695,29 +9223,61 @@
     </row>
     <row r="129">
       <c r="A129" s="3"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="3"/>
+      <c r="B129" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H129" s="3"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="I129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J129" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
-      <c r="P129" s="1"/>
+      <c r="P129" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3"/>
+      <c r="R129" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S129" s="3">
+        <f>2.01*8</f>
+        <v>16.08</v>
+      </c>
       <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
+      <c r="U129" s="3">
+        <f>2.19*8</f>
+        <v>17.52</v>
+      </c>
+      <c r="V129" s="3">
+        <f>2.1*8</f>
+        <v>16.8</v>
+      </c>
       <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
+      <c r="X129" s="2">
+        <f>0.79*8</f>
+        <v>6.32</v>
+      </c>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
@@ -8729,29 +9289,61 @@
     </row>
     <row r="130">
       <c r="A130" s="3"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="3"/>
+      <c r="B130" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H130" s="3"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="I130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
-      <c r="P130" s="1"/>
+      <c r="P130" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
+      <c r="R130" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S130" s="3">
+        <f t="shared" ref="S130:S131" si="61">8*1.99</f>
+        <v>15.92</v>
+      </c>
       <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
+      <c r="U130" s="3">
+        <f>2.2*8</f>
+        <v>17.6</v>
+      </c>
+      <c r="V130" s="3">
+        <f>2.09*8</f>
+        <v>16.72</v>
+      </c>
       <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
+      <c r="X130" s="3">
+        <f>8*0.7</f>
+        <v>5.6</v>
+      </c>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
@@ -8763,29 +9355,61 @@
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="3"/>
+      <c r="B131" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="I131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
-      <c r="P131" s="1"/>
+      <c r="P131" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3"/>
+      <c r="R131" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S131" s="3">
+        <f t="shared" si="61"/>
+        <v>15.92</v>
+      </c>
       <c r="T131" s="3"/>
-      <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
+      <c r="U131" s="3">
+        <f>2.14*8</f>
+        <v>17.12</v>
+      </c>
+      <c r="V131" s="3">
+        <f>2.07*8</f>
+        <v>16.56</v>
+      </c>
       <c r="W131" s="3"/>
-      <c r="X131" s="3"/>
+      <c r="X131" s="3">
+        <f>8*0.65</f>
+        <v>5.2</v>
+      </c>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
@@ -8797,29 +9421,61 @@
     </row>
     <row r="132">
       <c r="A132" s="3"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="3"/>
+      <c r="B132" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="I132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J132" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-      <c r="P132" s="1"/>
+      <c r="P132" s="2">
+        <v>2.0</v>
+      </c>
       <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
+      <c r="R132" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S132" s="3">
+        <f>1.99*8</f>
+        <v>15.92</v>
+      </c>
       <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
+      <c r="U132" s="3">
+        <f t="shared" ref="U132:U133" si="62">8*2.2</f>
+        <v>17.6</v>
+      </c>
+      <c r="V132" s="3">
+        <f t="shared" ref="V132:V133" si="63">8*2.1</f>
+        <v>16.8</v>
+      </c>
       <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
+      <c r="X132" s="3">
+        <f>8*0.87</f>
+        <v>6.96</v>
+      </c>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
@@ -8831,29 +9487,61 @@
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="3"/>
+      <c r="B133" s="2">
+        <v>124.0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="I133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
-      <c r="P133" s="1"/>
+      <c r="P133" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
+      <c r="R133" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S133" s="3">
+        <f>8*2</f>
+        <v>16</v>
+      </c>
       <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
+      <c r="U133" s="3">
+        <f t="shared" si="62"/>
+        <v>17.6</v>
+      </c>
+      <c r="V133" s="3">
+        <f t="shared" si="63"/>
+        <v>16.8</v>
+      </c>
       <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
+      <c r="X133" s="3">
+        <f>8*0.77</f>
+        <v>6.16</v>
+      </c>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
@@ -8865,29 +9553,61 @@
     </row>
     <row r="134">
       <c r="A134" s="3"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="3"/>
+      <c r="B134" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H134" s="3"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="I134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
-      <c r="P134" s="1"/>
+      <c r="P134" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
+      <c r="R134" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S134" s="3">
+        <f>8*1.99</f>
+        <v>15.92</v>
+      </c>
       <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
+      <c r="U134" s="3">
+        <f>2.17*8</f>
+        <v>17.36</v>
+      </c>
+      <c r="V134" s="3">
+        <f t="shared" ref="V134:V135" si="64">8*2.08</f>
+        <v>16.64</v>
+      </c>
       <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
+      <c r="X134" s="3">
+        <f>8*0.72</f>
+        <v>5.76</v>
+      </c>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
@@ -8899,29 +9619,61 @@
     </row>
     <row r="135">
       <c r="A135" s="3"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="3"/>
+      <c r="B135" s="2">
+        <v>126.0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H135" s="3"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="I135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
-      <c r="P135" s="1"/>
+      <c r="P135" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3"/>
+      <c r="R135" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S135" s="3">
+        <f>8*2</f>
+        <v>16</v>
+      </c>
       <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
+      <c r="U135" s="3">
+        <f t="shared" ref="U135:U136" si="65">8*2.18</f>
+        <v>17.44</v>
+      </c>
+      <c r="V135" s="3">
+        <f t="shared" si="64"/>
+        <v>16.64</v>
+      </c>
       <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
+      <c r="X135" s="3">
+        <f>8*0.63</f>
+        <v>5.04</v>
+      </c>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
@@ -8933,29 +9685,61 @@
     </row>
     <row r="136">
       <c r="A136" s="3"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="3"/>
+      <c r="B136" s="2">
+        <v>127.0</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="I136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J136" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
-      <c r="P136" s="1"/>
+      <c r="P136" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="S136" s="3"/>
+      <c r="R136" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S136" s="3">
+        <f>8*2.01</f>
+        <v>16.08</v>
+      </c>
       <c r="T136" s="3"/>
-      <c r="U136" s="3"/>
-      <c r="V136" s="3"/>
+      <c r="U136" s="3">
+        <f t="shared" si="65"/>
+        <v>17.44</v>
+      </c>
+      <c r="V136" s="3">
+        <f t="shared" ref="V136:V137" si="66">8*2.09</f>
+        <v>16.72</v>
+      </c>
       <c r="W136" s="3"/>
-      <c r="X136" s="3"/>
+      <c r="X136" s="3">
+        <f>8*0.52</f>
+        <v>4.16</v>
+      </c>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
@@ -8967,29 +9751,61 @@
     </row>
     <row r="137">
       <c r="A137" s="3"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="3"/>
+      <c r="B137" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="I137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="2">
+        <v>200.0</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
-      <c r="P137" s="1"/>
+      <c r="P137" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="3"/>
+      <c r="R137" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S137" s="3">
+        <f>2*8</f>
+        <v>16</v>
+      </c>
       <c r="T137" s="3"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
+      <c r="U137" s="3">
+        <f>8*2.17</f>
+        <v>17.36</v>
+      </c>
+      <c r="V137" s="3">
+        <f t="shared" si="66"/>
+        <v>16.72</v>
+      </c>
       <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
+      <c r="X137" s="3">
+        <f>8*0.71</f>
+        <v>5.68</v>
+      </c>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
@@ -9001,29 +9817,61 @@
     </row>
     <row r="138">
       <c r="A138" s="3"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="3"/>
+      <c r="B138" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="I138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="2">
+        <v>300.0</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
-      <c r="P138" s="1"/>
+      <c r="P138" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="3"/>
+      <c r="R138" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="S138" s="3">
+        <f>1.99*8</f>
+        <v>15.92</v>
+      </c>
       <c r="T138" s="3"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
+      <c r="U138" s="3">
+        <f>2.17*8</f>
+        <v>17.36</v>
+      </c>
+      <c r="V138" s="3">
+        <f>2.08*8</f>
+        <v>16.64</v>
+      </c>
       <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
+      <c r="X138" s="3">
+        <f>0.78*8</f>
+        <v>6.24</v>
+      </c>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
@@ -9035,29 +9883,61 @@
     </row>
     <row r="139">
       <c r="A139" s="3"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="3"/>
+      <c r="B139" s="2">
+        <v>129.0</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H139" s="3"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="I139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J139" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
-      <c r="P139" s="1"/>
+      <c r="P139" s="2">
+        <v>2.0</v>
+      </c>
       <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
+      <c r="R139" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S139" s="3">
+        <f t="shared" ref="S139:S141" si="67">1.81*8</f>
+        <v>14.48</v>
+      </c>
       <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
+      <c r="U139" s="3">
+        <f>1.96*8</f>
+        <v>15.68</v>
+      </c>
+      <c r="V139" s="3">
+        <f t="shared" ref="V139:V140" si="68">1.88*8</f>
+        <v>15.04</v>
+      </c>
       <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
+      <c r="X139" s="3">
+        <f>0.96*8</f>
+        <v>7.68</v>
+      </c>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
@@ -9069,29 +9949,61 @@
     </row>
     <row r="140">
       <c r="A140" s="3"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="3"/>
+      <c r="B140" s="2">
+        <v>130.0</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H140" s="3"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="I140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
-      <c r="P140" s="1"/>
+      <c r="P140" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3"/>
+      <c r="R140" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S140" s="3">
+        <f t="shared" si="67"/>
+        <v>14.48</v>
+      </c>
       <c r="T140" s="3"/>
-      <c r="U140" s="3"/>
-      <c r="V140" s="3"/>
+      <c r="U140" s="3">
+        <f>1.93*8</f>
+        <v>15.44</v>
+      </c>
+      <c r="V140" s="3">
+        <f t="shared" si="68"/>
+        <v>15.04</v>
+      </c>
       <c r="W140" s="3"/>
-      <c r="X140" s="3"/>
+      <c r="X140" s="3">
+        <f>8*0.89</f>
+        <v>7.12</v>
+      </c>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
@@ -9103,29 +10015,61 @@
     </row>
     <row r="141">
       <c r="A141" s="3"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="3"/>
+      <c r="B141" s="2">
+        <v>131.0</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H141" s="3"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="I141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J141" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
-      <c r="P141" s="1"/>
+      <c r="P141" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="3"/>
+      <c r="R141" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S141" s="3">
+        <f t="shared" si="67"/>
+        <v>14.48</v>
+      </c>
       <c r="T141" s="3"/>
-      <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
+      <c r="U141" s="3">
+        <f>1.89*8</f>
+        <v>15.12</v>
+      </c>
+      <c r="V141" s="3">
+        <f>1.85*8</f>
+        <v>14.8</v>
+      </c>
       <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
+      <c r="X141" s="3">
+        <f>8*0.84</f>
+        <v>6.72</v>
+      </c>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
@@ -9137,29 +10081,61 @@
     </row>
     <row r="142">
       <c r="A142" s="3"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="3"/>
+      <c r="B142" s="2">
+        <v>132.0</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H142" s="3"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="I142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J142" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
-      <c r="P142" s="1"/>
+      <c r="P142" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3"/>
+      <c r="R142" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S142" s="3">
+        <f>1.8*8</f>
+        <v>14.4</v>
+      </c>
       <c r="T142" s="3"/>
-      <c r="U142" s="3"/>
-      <c r="V142" s="3"/>
+      <c r="U142" s="3">
+        <f>1.88*8</f>
+        <v>15.04</v>
+      </c>
+      <c r="V142" s="3">
+        <f t="shared" ref="V142:V143" si="69">1.84*8</f>
+        <v>14.72</v>
+      </c>
       <c r="W142" s="3"/>
-      <c r="X142" s="3"/>
+      <c r="X142" s="3">
+        <f>0.75*8</f>
+        <v>6</v>
+      </c>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
       <c r="AA142" s="3"/>
@@ -9171,29 +10147,61 @@
     </row>
     <row r="143">
       <c r="A143" s="3"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="3"/>
+      <c r="B143" s="2">
+        <v>133.0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="I143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
-      <c r="P143" s="1"/>
+      <c r="P143" s="2">
+        <v>4.0</v>
+      </c>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3"/>
+      <c r="R143" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S143" s="3">
+        <f t="shared" ref="S143:S144" si="70">1.82*8</f>
+        <v>14.56</v>
+      </c>
       <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
+      <c r="U143" s="3">
+        <f>8*1.88</f>
+        <v>15.04</v>
+      </c>
+      <c r="V143" s="3">
+        <f t="shared" si="69"/>
+        <v>14.72</v>
+      </c>
       <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
+      <c r="X143" s="3">
+        <f>8*0.63</f>
+        <v>5.04</v>
+      </c>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
@@ -9205,29 +10213,61 @@
     </row>
     <row r="144">
       <c r="A144" s="3"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="3"/>
+      <c r="B144" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H144" s="3"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="I144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J144" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
-      <c r="P144" s="1"/>
+      <c r="P144" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
+      <c r="R144" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S144" s="3">
+        <f t="shared" si="70"/>
+        <v>14.56</v>
+      </c>
       <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
+      <c r="U144" s="3">
+        <f>1.98*8</f>
+        <v>15.84</v>
+      </c>
+      <c r="V144" s="3">
+        <f>1.9*8</f>
+        <v>15.2</v>
+      </c>
       <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
+      <c r="X144" s="3">
+        <f>0.84*8</f>
+        <v>6.72</v>
+      </c>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
@@ -9239,29 +10279,61 @@
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="3"/>
+      <c r="B145" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H145" s="3"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="I145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J145" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
-      <c r="P145" s="1"/>
+      <c r="P145" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
+      <c r="R145" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S145" s="3">
+        <f>1.81*8</f>
+        <v>14.48</v>
+      </c>
       <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
+      <c r="U145" s="3">
+        <f>1.94*8</f>
+        <v>15.52</v>
+      </c>
+      <c r="V145" s="3">
+        <f t="shared" ref="V145:V146" si="71">1.88*8</f>
+        <v>15.04</v>
+      </c>
       <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
+      <c r="X145" s="2">
+        <f>0.77*8</f>
+        <v>6.16</v>
+      </c>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
@@ -9273,29 +10345,61 @@
     </row>
     <row r="146">
       <c r="A146" s="3"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="3"/>
+      <c r="B146" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H146" s="3"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="I146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J146" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
-      <c r="P146" s="1"/>
+      <c r="P146" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="3"/>
+      <c r="R146" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S146" s="3">
+        <f>8*1.82</f>
+        <v>14.56</v>
+      </c>
       <c r="T146" s="3"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
+      <c r="U146" s="3">
+        <f>1.93*8</f>
+        <v>15.44</v>
+      </c>
+      <c r="V146" s="3">
+        <f t="shared" si="71"/>
+        <v>15.04</v>
+      </c>
       <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
+      <c r="X146" s="3">
+        <f>0.69*8</f>
+        <v>5.52</v>
+      </c>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
@@ -9307,29 +10411,61 @@
     </row>
     <row r="147">
       <c r="A147" s="3"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="3"/>
+      <c r="B147" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H147" s="3"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="I147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J147" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
-      <c r="P147" s="1"/>
+      <c r="P147" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3"/>
+      <c r="R147" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S147" s="3">
+        <f>1.56*8</f>
+        <v>12.48</v>
+      </c>
       <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
+      <c r="U147" s="3">
+        <f>1.67*8</f>
+        <v>13.36</v>
+      </c>
+      <c r="V147" s="3">
+        <f>1.62*8</f>
+        <v>12.96</v>
+      </c>
       <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
+      <c r="X147" s="3">
+        <f>0.97*8</f>
+        <v>7.76</v>
+      </c>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
@@ -9341,29 +10477,61 @@
     </row>
     <row r="148">
       <c r="A148" s="3"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="3"/>
+      <c r="B148" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H148" s="3"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="I148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J148" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
-      <c r="P148" s="1"/>
+      <c r="P148" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-      <c r="S148" s="3"/>
+      <c r="R148" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S148" s="3">
+        <f>1.57*8</f>
+        <v>12.56</v>
+      </c>
       <c r="T148" s="3"/>
-      <c r="U148" s="3"/>
-      <c r="V148" s="3"/>
+      <c r="U148" s="3">
+        <f>1.64*8</f>
+        <v>13.12</v>
+      </c>
+      <c r="V148" s="3">
+        <f>1.6*8</f>
+        <v>12.8</v>
+      </c>
       <c r="W148" s="3"/>
-      <c r="X148" s="3"/>
+      <c r="X148" s="3">
+        <f>8*0.91</f>
+        <v>7.28</v>
+      </c>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
@@ -9375,29 +10543,61 @@
     </row>
     <row r="149">
       <c r="A149" s="3"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="3"/>
+      <c r="B149" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H149" s="3"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="I149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J149" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
-      <c r="P149" s="1"/>
+      <c r="P149" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
+      <c r="R149" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S149" s="3">
+        <f>8*1.56</f>
+        <v>12.48</v>
+      </c>
       <c r="T149" s="3"/>
-      <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
+      <c r="U149" s="3">
+        <f>1.62*8</f>
+        <v>12.96</v>
+      </c>
+      <c r="V149" s="3">
+        <f>1.59*8</f>
+        <v>12.72</v>
+      </c>
       <c r="W149" s="3"/>
-      <c r="X149" s="3"/>
+      <c r="X149" s="3">
+        <f>0.84*8</f>
+        <v>6.72</v>
+      </c>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
@@ -9409,23 +10609,43 @@
     </row>
     <row r="150">
       <c r="A150" s="3"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="3"/>
+      <c r="B150" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="I150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J150" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
-      <c r="P150" s="1"/>
+      <c r="P150" s="2">
+        <v>2.5</v>
+      </c>
       <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
+      <c r="R150" s="2">
+        <v>16.0</v>
+      </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
@@ -9443,23 +10663,43 @@
     </row>
     <row r="151">
       <c r="A151" s="3"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="3"/>
+      <c r="B151" s="2">
+        <v>141.0</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H151" s="3"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="I151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J151" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
-      <c r="P151" s="1"/>
+      <c r="P151" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
+      <c r="R151" s="2">
+        <v>16.0</v>
+      </c>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
       <c r="U151" s="3"/>
@@ -9477,23 +10717,43 @@
     </row>
     <row r="152">
       <c r="A152" s="3"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="3"/>
+      <c r="B152" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0.0</v>
+      </c>
       <c r="H152" s="3"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="I152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J152" s="2">
+        <v>150.0</v>
+      </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
-      <c r="P152" s="1"/>
+      <c r="P152" s="2">
+        <v>3.5</v>
+      </c>
       <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
+      <c r="R152" s="2">
+        <v>16.0</v>
+      </c>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
@@ -40789,40 +42049,6 @@
       <c r="AE1072" s="3"/>
       <c r="AF1072" s="3"/>
     </row>
-    <row r="1073">
-      <c r="A1073" s="3"/>
-      <c r="B1073" s="1"/>
-      <c r="C1073" s="1"/>
-      <c r="D1073" s="1"/>
-      <c r="E1073" s="1"/>
-      <c r="F1073" s="1"/>
-      <c r="G1073" s="3"/>
-      <c r="H1073" s="3"/>
-      <c r="I1073" s="1"/>
-      <c r="J1073" s="1"/>
-      <c r="K1073" s="3"/>
-      <c r="L1073" s="3"/>
-      <c r="M1073" s="3"/>
-      <c r="N1073" s="3"/>
-      <c r="O1073" s="3"/>
-      <c r="P1073" s="1"/>
-      <c r="Q1073" s="3"/>
-      <c r="R1073" s="3"/>
-      <c r="S1073" s="3"/>
-      <c r="T1073" s="3"/>
-      <c r="U1073" s="3"/>
-      <c r="V1073" s="3"/>
-      <c r="W1073" s="3"/>
-      <c r="X1073" s="3"/>
-      <c r="Y1073" s="3"/>
-      <c r="Z1073" s="3"/>
-      <c r="AA1073" s="3"/>
-      <c r="AB1073" s="3"/>
-      <c r="AC1073" s="3"/>
-      <c r="AD1073" s="3"/>
-      <c r="AE1073" s="3"/>
-      <c r="AF1073" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -40864,7 +42090,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>10</v>
@@ -40885,7 +42111,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>18</v>
@@ -40932,13 +42158,13 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
@@ -41010,13 +42236,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41088,13 +42314,13 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
@@ -41166,13 +42392,13 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -41244,13 +42470,13 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -41322,13 +42548,13 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -41400,13 +42626,13 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -41478,13 +42704,13 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -41556,13 +42782,13 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -41634,13 +42860,13 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -41712,13 +42938,13 @@
         <v>3.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -41790,13 +43016,13 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -41868,13 +43094,13 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -41946,13 +43172,13 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -42024,13 +43250,13 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -42102,13 +43328,13 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -42193,10 +43419,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -42204,7 +43430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -42212,7 +43438,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -42220,7 +43446,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -42228,7 +43454,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -42236,15 +43462,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -42252,7 +43478,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -42260,7 +43486,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -42268,7 +43494,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -42276,7 +43502,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -42284,7 +43510,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -42292,15 +43518,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -42308,7 +43534,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -42316,7 +43542,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -42324,7 +43550,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -42332,7 +43558,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -42340,7 +43566,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -42348,7 +43574,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -42356,7 +43582,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -42364,7 +43590,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -42372,7 +43598,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -42380,7 +43606,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -42388,7 +43614,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -42396,7 +43622,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="82">
   <si>
     <t>date_time_nst</t>
   </si>
@@ -141,10 +141,10 @@
     <t>RACE</t>
   </si>
   <si>
-    <t>EBS</t>
+    <t>EBS_v0</t>
   </si>
   <si>
-    <t>EBS+65</t>
+    <t>EBS_v1</t>
   </si>
   <si>
     <t>GOA/AI_v0</t>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>GOA/AI_v6</t>
+  </si>
+  <si>
+    <t>EBS_v2</t>
   </si>
   <si>
     <t>pulling_point_elevation_m</t>
@@ -12556,7 +12559,7 @@
         <v>2.0</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>50</v>
@@ -12630,7 +12633,7 @@
         <v>2.0</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>50</v>
@@ -12704,7 +12707,7 @@
         <v>2.0</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>50</v>
@@ -12778,7 +12781,7 @@
         <v>2.0</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>50</v>
@@ -12852,7 +12855,7 @@
         <v>2.0</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>50</v>
@@ -12926,7 +12929,7 @@
         <v>2.0</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>50</v>
@@ -13021,7 +13024,9 @@
       <c r="L166" s="2">
         <v>1.0</v>
       </c>
-      <c r="M166" s="1"/>
+      <c r="M166" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
@@ -13034,12 +13039,24 @@
       <c r="U166" s="2">
         <v>16.0</v>
       </c>
-      <c r="V166" s="4"/>
+      <c r="V166" s="4">
+        <f>8*2.02</f>
+        <v>16.16</v>
+      </c>
       <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
-      <c r="Y166" s="4"/>
+      <c r="X166" s="4">
+        <f>8*2.23</f>
+        <v>17.84</v>
+      </c>
+      <c r="Y166" s="4">
+        <f t="shared" ref="Y166:Y167" si="80">8*2.13</f>
+        <v>17.04</v>
+      </c>
       <c r="Z166" s="4"/>
-      <c r="AA166" s="4"/>
+      <c r="AA166" s="4">
+        <f t="shared" ref="AA166:AA167" si="81">8*0.65</f>
+        <v>5.2</v>
+      </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
       <c r="AD166" s="4"/>
@@ -13081,7 +13098,9 @@
       <c r="L167" s="2">
         <v>2.0</v>
       </c>
-      <c r="M167" s="1"/>
+      <c r="M167" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
@@ -13094,12 +13113,24 @@
       <c r="U167" s="2">
         <v>16.0</v>
       </c>
-      <c r="V167" s="4"/>
+      <c r="V167" s="4">
+        <f>8*2.03</f>
+        <v>16.24</v>
+      </c>
       <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
-      <c r="Y167" s="4"/>
+      <c r="X167" s="4">
+        <f>2.24*8</f>
+        <v>17.92</v>
+      </c>
+      <c r="Y167" s="4">
+        <f t="shared" si="80"/>
+        <v>17.04</v>
+      </c>
       <c r="Z167" s="4"/>
-      <c r="AA167" s="4"/>
+      <c r="AA167" s="4">
+        <f t="shared" si="81"/>
+        <v>5.2</v>
+      </c>
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
@@ -13141,7 +13172,9 @@
       <c r="L168" s="2">
         <v>3.0</v>
       </c>
-      <c r="M168" s="1"/>
+      <c r="M168" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
@@ -13154,12 +13187,24 @@
       <c r="U168" s="2">
         <v>16.0</v>
       </c>
-      <c r="V168" s="4"/>
+      <c r="V168" s="4">
+        <f>2.02*8</f>
+        <v>16.16</v>
+      </c>
       <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
+      <c r="X168" s="4">
+        <f>2.22*8</f>
+        <v>17.76</v>
+      </c>
+      <c r="Y168" s="4">
+        <f>2.12*8</f>
+        <v>16.96</v>
+      </c>
       <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
+      <c r="AA168" s="4">
+        <f>0.66*8</f>
+        <v>5.28</v>
+      </c>
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
@@ -13170,32 +13215,70 @@
     </row>
     <row r="169">
       <c r="A169" s="4"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
+      <c r="B169" s="2">
+        <v>155.0</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K169" s="4"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
+      <c r="L169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M169" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
-      <c r="S169" s="1"/>
+      <c r="S169" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
+      <c r="U169" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="V169" s="4">
+        <f t="shared" ref="V169:V171" si="82">2.5*8</f>
+        <v>20</v>
+      </c>
       <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
-      <c r="Y169" s="4"/>
+      <c r="X169" s="4">
+        <f>2.88*8</f>
+        <v>23.04</v>
+      </c>
+      <c r="Y169" s="4">
+        <f>2.69*8</f>
+        <v>21.52</v>
+      </c>
       <c r="Z169" s="4"/>
-      <c r="AA169" s="4"/>
+      <c r="AA169" s="4">
+        <f>8*0.51</f>
+        <v>4.08</v>
+      </c>
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
@@ -13206,32 +13289,70 @@
     </row>
     <row r="170">
       <c r="A170" s="4"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
+      <c r="B170" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K170" s="4"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
+      <c r="L170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M170" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
-      <c r="S170" s="1"/>
+      <c r="S170" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
+      <c r="U170" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="V170" s="4">
+        <f t="shared" si="82"/>
+        <v>20</v>
+      </c>
       <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
-      <c r="Y170" s="4"/>
+      <c r="X170" s="4">
+        <f>2.85*8</f>
+        <v>22.8</v>
+      </c>
+      <c r="Y170" s="4">
+        <f>2.68*8</f>
+        <v>21.44</v>
+      </c>
       <c r="Z170" s="4"/>
-      <c r="AA170" s="4"/>
+      <c r="AA170" s="4">
+        <f>0.44*8</f>
+        <v>3.52</v>
+      </c>
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
@@ -13242,32 +13363,70 @@
     </row>
     <row r="171">
       <c r="A171" s="4"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="B171" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K171" s="4"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
+      <c r="L171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M171" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
-      <c r="S171" s="1"/>
+      <c r="S171" s="2">
+        <v>3.5</v>
+      </c>
       <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
+      <c r="U171" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="V171" s="4">
+        <f t="shared" si="82"/>
+        <v>20</v>
+      </c>
       <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
-      <c r="Y171" s="4"/>
+      <c r="X171" s="4">
+        <f>8*2.86</f>
+        <v>22.88</v>
+      </c>
+      <c r="Y171" s="4">
+        <f>8*2.68</f>
+        <v>21.44</v>
+      </c>
       <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
+      <c r="AA171" s="4">
+        <f>8*0.38</f>
+        <v>3.04</v>
+      </c>
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
@@ -13278,32 +13437,70 @@
     </row>
     <row r="172">
       <c r="A172" s="4"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
+      <c r="B172" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K172" s="4"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
+      <c r="L172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M172" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
-      <c r="S172" s="1"/>
+      <c r="S172" s="2">
+        <v>2.0</v>
+      </c>
       <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
+      <c r="U172" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="V172" s="4">
+        <f>2.2*8</f>
+        <v>17.6</v>
+      </c>
       <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
-      <c r="Y172" s="4"/>
+      <c r="X172" s="4">
+        <f>2.47*8</f>
+        <v>19.76</v>
+      </c>
+      <c r="Y172" s="4">
+        <f t="shared" ref="Y172:Y173" si="83">2.33*8</f>
+        <v>18.64</v>
+      </c>
       <c r="Z172" s="4"/>
-      <c r="AA172" s="4"/>
+      <c r="AA172" s="4">
+        <f>8*0.73</f>
+        <v>5.84</v>
+      </c>
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
       <c r="AD172" s="4"/>
@@ -13314,32 +13511,70 @@
     </row>
     <row r="173">
       <c r="A173" s="4"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
+      <c r="B173" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K173" s="4"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="L173" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M173" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
-      <c r="S173" s="1"/>
+      <c r="S173" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
+      <c r="U173" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="V173" s="4">
+        <f>8*2.19</f>
+        <v>17.52</v>
+      </c>
       <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="4"/>
+      <c r="X173" s="4">
+        <f>2.46*8</f>
+        <v>19.68</v>
+      </c>
+      <c r="Y173" s="4">
+        <f t="shared" si="83"/>
+        <v>18.64</v>
+      </c>
       <c r="Z173" s="4"/>
-      <c r="AA173" s="4"/>
+      <c r="AA173" s="4">
+        <f>8*0.64</f>
+        <v>5.12</v>
+      </c>
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
@@ -13350,32 +13585,70 @@
     </row>
     <row r="174">
       <c r="A174" s="4"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
+      <c r="B174" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K174" s="4"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
+      <c r="L174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M174" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
-      <c r="S174" s="1"/>
+      <c r="S174" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
+      <c r="U174" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="V174" s="4">
+        <f>2.19*8</f>
+        <v>17.52</v>
+      </c>
       <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
-      <c r="Y174" s="4"/>
+      <c r="X174" s="4">
+        <f>8*2.45</f>
+        <v>19.6</v>
+      </c>
+      <c r="Y174" s="4">
+        <f t="shared" ref="Y174:Y176" si="84">8*2.32</f>
+        <v>18.56</v>
+      </c>
       <c r="Z174" s="4"/>
-      <c r="AA174" s="4"/>
+      <c r="AA174" s="4">
+        <f>8*0.57</f>
+        <v>4.56</v>
+      </c>
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
       <c r="AD174" s="4"/>
@@ -13386,32 +13659,70 @@
     </row>
     <row r="175">
       <c r="A175" s="4"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="B175" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K175" s="4"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
+      <c r="L175" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M175" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
-      <c r="S175" s="1"/>
+      <c r="S175" s="2">
+        <v>3.5</v>
+      </c>
       <c r="T175" s="4"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
+      <c r="U175" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="V175" s="4">
+        <f t="shared" ref="V175:V176" si="85">8*2.2</f>
+        <v>17.6</v>
+      </c>
       <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
-      <c r="Y175" s="4"/>
+      <c r="X175" s="4">
+        <f>8*2.44</f>
+        <v>19.52</v>
+      </c>
+      <c r="Y175" s="4">
+        <f t="shared" si="84"/>
+        <v>18.56</v>
+      </c>
       <c r="Z175" s="4"/>
-      <c r="AA175" s="4"/>
+      <c r="AA175" s="4">
+        <f>8*0.5</f>
+        <v>4</v>
+      </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
@@ -13422,32 +13733,70 @@
     </row>
     <row r="176">
       <c r="A176" s="4"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
+      <c r="B176" s="2">
+        <v>162.0</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K176" s="4"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
+      <c r="L176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M176" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
-      <c r="S176" s="1"/>
+      <c r="S176" s="2">
+        <v>4.0</v>
+      </c>
       <c r="T176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
+      <c r="U176" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="V176" s="4">
+        <f t="shared" si="85"/>
+        <v>17.6</v>
+      </c>
       <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
+      <c r="X176" s="4">
+        <f>8*2.45</f>
+        <v>19.6</v>
+      </c>
+      <c r="Y176" s="4">
+        <f t="shared" si="84"/>
+        <v>18.56</v>
+      </c>
       <c r="Z176" s="4"/>
-      <c r="AA176" s="4"/>
+      <c r="AA176" s="4">
+        <f>8*0.41</f>
+        <v>3.28</v>
+      </c>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
@@ -13458,32 +13807,70 @@
     </row>
     <row r="177">
       <c r="A177" s="4"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+      <c r="B177" s="2">
+        <v>163.0</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K177" s="4"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
+      <c r="L177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M177" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
-      <c r="S177" s="1"/>
+      <c r="S177" s="2">
+        <v>2.0</v>
+      </c>
       <c r="T177" s="4"/>
-      <c r="U177" s="4"/>
-      <c r="V177" s="4"/>
+      <c r="U177" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V177" s="4">
+        <f t="shared" ref="V177:V178" si="86">2.01*8</f>
+        <v>16.08</v>
+      </c>
       <c r="W177" s="4"/>
-      <c r="X177" s="4"/>
-      <c r="Y177" s="4"/>
+      <c r="X177" s="4">
+        <f t="shared" ref="X177:X178" si="87">8*2.2</f>
+        <v>17.6</v>
+      </c>
+      <c r="Y177" s="4">
+        <f>8*2.1</f>
+        <v>16.8</v>
+      </c>
       <c r="Z177" s="4"/>
-      <c r="AA177" s="4"/>
+      <c r="AA177" s="4">
+        <f>8*0.82</f>
+        <v>6.56</v>
+      </c>
       <c r="AB177" s="4"/>
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
@@ -13494,32 +13881,70 @@
     </row>
     <row r="178">
       <c r="A178" s="4"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
+      <c r="B178" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K178" s="4"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
+      <c r="L178" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M178" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
-      <c r="S178" s="1"/>
+      <c r="S178" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T178" s="4"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
+      <c r="U178" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V178" s="4">
+        <f t="shared" si="86"/>
+        <v>16.08</v>
+      </c>
       <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
-      <c r="Y178" s="4"/>
+      <c r="X178" s="4">
+        <f t="shared" si="87"/>
+        <v>17.6</v>
+      </c>
+      <c r="Y178" s="4">
+        <f>2.11*8</f>
+        <v>16.88</v>
+      </c>
       <c r="Z178" s="4"/>
-      <c r="AA178" s="4"/>
+      <c r="AA178" s="4">
+        <f>8*0.73</f>
+        <v>5.84</v>
+      </c>
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
@@ -13530,32 +13955,70 @@
     </row>
     <row r="179">
       <c r="A179" s="4"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
+      <c r="B179" s="2">
+        <v>165.0</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K179" s="4"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
+      <c r="L179" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M179" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
-      <c r="S179" s="1"/>
+      <c r="S179" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T179" s="4"/>
-      <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
+      <c r="U179" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V179" s="4">
+        <f t="shared" ref="V179:V180" si="88">2*8</f>
+        <v>16</v>
+      </c>
       <c r="W179" s="4"/>
-      <c r="X179" s="4"/>
-      <c r="Y179" s="4"/>
+      <c r="X179" s="4">
+        <f>8*2.17</f>
+        <v>17.36</v>
+      </c>
+      <c r="Y179" s="4">
+        <f>8*2.09</f>
+        <v>16.72</v>
+      </c>
       <c r="Z179" s="4"/>
-      <c r="AA179" s="4"/>
+      <c r="AA179" s="4">
+        <f>0.68*8</f>
+        <v>5.44</v>
+      </c>
       <c r="AB179" s="4"/>
       <c r="AC179" s="4"/>
       <c r="AD179" s="4"/>
@@ -13566,32 +14029,70 @@
     </row>
     <row r="180">
       <c r="A180" s="4"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
+      <c r="B180" s="2">
+        <v>166.0</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K180" s="4"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
+      <c r="L180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M180" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
-      <c r="S180" s="1"/>
+      <c r="S180" s="2">
+        <v>3.5</v>
+      </c>
       <c r="T180" s="4"/>
-      <c r="U180" s="4"/>
-      <c r="V180" s="4"/>
+      <c r="U180" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V180" s="4">
+        <f t="shared" si="88"/>
+        <v>16</v>
+      </c>
       <c r="W180" s="4"/>
-      <c r="X180" s="4"/>
-      <c r="Y180" s="4"/>
+      <c r="X180" s="4">
+        <f>8*2.16</f>
+        <v>17.28</v>
+      </c>
+      <c r="Y180" s="4">
+        <f>8*2.08</f>
+        <v>16.64</v>
+      </c>
       <c r="Z180" s="4"/>
-      <c r="AA180" s="4"/>
+      <c r="AA180" s="4">
+        <f>0.59*8</f>
+        <v>4.72</v>
+      </c>
       <c r="AB180" s="4"/>
       <c r="AC180" s="4"/>
       <c r="AD180" s="4"/>
@@ -13602,32 +14103,70 @@
     </row>
     <row r="181">
       <c r="A181" s="4"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="B181" s="2">
+        <v>167.0</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K181" s="4"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
+      <c r="L181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M181" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
-      <c r="S181" s="1"/>
+      <c r="S181" s="2">
+        <v>4.0</v>
+      </c>
       <c r="T181" s="4"/>
-      <c r="U181" s="4"/>
-      <c r="V181" s="4"/>
+      <c r="U181" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V181" s="4">
+        <f>2.01*8</f>
+        <v>16.08</v>
+      </c>
       <c r="W181" s="4"/>
-      <c r="X181" s="4"/>
-      <c r="Y181" s="4"/>
+      <c r="X181" s="4">
+        <f>2.17*8</f>
+        <v>17.36</v>
+      </c>
+      <c r="Y181" s="4">
+        <f>8*2.09</f>
+        <v>16.72</v>
+      </c>
       <c r="Z181" s="4"/>
-      <c r="AA181" s="4"/>
+      <c r="AA181" s="4">
+        <f>0.51*8</f>
+        <v>4.08</v>
+      </c>
       <c r="AB181" s="4"/>
       <c r="AC181" s="4"/>
       <c r="AD181" s="4"/>
@@ -13638,32 +14177,70 @@
     </row>
     <row r="182">
       <c r="A182" s="4"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
+      <c r="B182" s="2">
+        <v>168.0</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K182" s="4"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
+      <c r="L182" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M182" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
-      <c r="S182" s="1"/>
+      <c r="S182" s="2">
+        <v>2.0</v>
+      </c>
       <c r="T182" s="4"/>
-      <c r="U182" s="4"/>
-      <c r="V182" s="4"/>
+      <c r="U182" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V182" s="4">
+        <f>8*1.8</f>
+        <v>14.4</v>
+      </c>
       <c r="W182" s="4"/>
-      <c r="X182" s="4"/>
-      <c r="Y182" s="4"/>
+      <c r="X182" s="4">
+        <f>1.98*8</f>
+        <v>15.84</v>
+      </c>
+      <c r="Y182" s="4">
+        <f>1.89*8</f>
+        <v>15.12</v>
+      </c>
       <c r="Z182" s="4"/>
-      <c r="AA182" s="4"/>
+      <c r="AA182" s="4">
+        <f>0.9*8</f>
+        <v>7.2</v>
+      </c>
       <c r="AB182" s="4"/>
       <c r="AC182" s="4"/>
       <c r="AD182" s="4"/>
@@ -13674,32 +14251,70 @@
     </row>
     <row r="183">
       <c r="A183" s="4"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+      <c r="B183" s="2">
+        <v>169.0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K183" s="4"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
+      <c r="L183" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M183" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
-      <c r="S183" s="1"/>
+      <c r="S183" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T183" s="4"/>
-      <c r="U183" s="4"/>
-      <c r="V183" s="4"/>
+      <c r="U183" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V183" s="4">
+        <f>1.81*8</f>
+        <v>14.48</v>
+      </c>
       <c r="W183" s="4"/>
-      <c r="X183" s="4"/>
-      <c r="Y183" s="4"/>
+      <c r="X183" s="4">
+        <f>1.94*8</f>
+        <v>15.52</v>
+      </c>
+      <c r="Y183" s="4">
+        <f>1.87*8</f>
+        <v>14.96</v>
+      </c>
       <c r="Z183" s="4"/>
-      <c r="AA183" s="4"/>
+      <c r="AA183" s="4">
+        <f>8*0.84</f>
+        <v>6.72</v>
+      </c>
       <c r="AB183" s="4"/>
       <c r="AC183" s="4"/>
       <c r="AD183" s="4"/>
@@ -13710,32 +14325,70 @@
     </row>
     <row r="184">
       <c r="A184" s="4"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
+      <c r="B184" s="2">
+        <v>170.0</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K184" s="4"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
+      <c r="L184" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M184" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
-      <c r="S184" s="1"/>
+      <c r="S184" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T184" s="4"/>
-      <c r="U184" s="4"/>
-      <c r="V184" s="4"/>
+      <c r="U184" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V184" s="4">
+        <f>1.8*8</f>
+        <v>14.4</v>
+      </c>
       <c r="W184" s="4"/>
-      <c r="X184" s="4"/>
-      <c r="Y184" s="4"/>
+      <c r="X184" s="4">
+        <f>1.92*8</f>
+        <v>15.36</v>
+      </c>
+      <c r="Y184" s="4">
+        <f>1.86*8</f>
+        <v>14.88</v>
+      </c>
       <c r="Z184" s="4"/>
-      <c r="AA184" s="4"/>
+      <c r="AA184" s="4">
+        <f>0.76*8</f>
+        <v>6.08</v>
+      </c>
       <c r="AB184" s="4"/>
       <c r="AC184" s="4"/>
       <c r="AD184" s="4"/>
@@ -13746,32 +14399,70 @@
     </row>
     <row r="185">
       <c r="A185" s="4"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
+      <c r="B185" s="2">
+        <v>171.0</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K185" s="4"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
+      <c r="L185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M185" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
-      <c r="S185" s="1"/>
+      <c r="S185" s="2">
+        <v>3.5</v>
+      </c>
       <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
+      <c r="U185" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V185" s="4">
+        <f>1.81*8</f>
+        <v>14.48</v>
+      </c>
       <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
-      <c r="Y185" s="4"/>
+      <c r="X185" s="4">
+        <f t="shared" ref="X185:X186" si="89">1.88*8</f>
+        <v>15.04</v>
+      </c>
+      <c r="Y185" s="4">
+        <f t="shared" ref="Y185:Y186" si="90">1.85*8</f>
+        <v>14.8</v>
+      </c>
       <c r="Z185" s="4"/>
-      <c r="AA185" s="4"/>
+      <c r="AA185" s="4">
+        <f>8*0.7</f>
+        <v>5.6</v>
+      </c>
       <c r="AB185" s="4"/>
       <c r="AC185" s="4"/>
       <c r="AD185" s="4"/>
@@ -13782,32 +14473,70 @@
     </row>
     <row r="186">
       <c r="A186" s="4"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
+      <c r="B186" s="2">
+        <v>172.0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K186" s="4"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
+      <c r="L186" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M186" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
-      <c r="S186" s="1"/>
+      <c r="S186" s="2">
+        <v>4.0</v>
+      </c>
       <c r="T186" s="4"/>
-      <c r="U186" s="4"/>
-      <c r="V186" s="4"/>
+      <c r="U186" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V186" s="4">
+        <f>8*1.81</f>
+        <v>14.48</v>
+      </c>
       <c r="W186" s="4"/>
-      <c r="X186" s="4"/>
-      <c r="Y186" s="4"/>
+      <c r="X186" s="4">
+        <f t="shared" si="89"/>
+        <v>15.04</v>
+      </c>
+      <c r="Y186" s="4">
+        <f t="shared" si="90"/>
+        <v>14.8</v>
+      </c>
       <c r="Z186" s="4"/>
-      <c r="AA186" s="4"/>
+      <c r="AA186" s="4">
+        <f>0.61*8</f>
+        <v>4.88</v>
+      </c>
       <c r="AB186" s="4"/>
       <c r="AC186" s="4"/>
       <c r="AD186" s="4"/>
@@ -13818,32 +14547,70 @@
     </row>
     <row r="187">
       <c r="A187" s="4"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
+      <c r="B187" s="2">
+        <v>173.0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K187" s="4"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
+      <c r="L187" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M187" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
-      <c r="S187" s="1"/>
+      <c r="S187" s="2">
+        <v>2.5</v>
+      </c>
       <c r="T187" s="4"/>
-      <c r="U187" s="4"/>
-      <c r="V187" s="4"/>
+      <c r="U187" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V187" s="4">
+        <f>8*1.56</f>
+        <v>12.48</v>
+      </c>
       <c r="W187" s="4"/>
-      <c r="X187" s="4"/>
-      <c r="Y187" s="4"/>
+      <c r="X187" s="4">
+        <f>1.64*8</f>
+        <v>13.12</v>
+      </c>
+      <c r="Y187" s="4">
+        <f>1.6*8</f>
+        <v>12.8</v>
+      </c>
       <c r="Z187" s="4"/>
-      <c r="AA187" s="4"/>
+      <c r="AA187" s="4">
+        <f>0.94*8</f>
+        <v>7.52</v>
+      </c>
       <c r="AB187" s="4"/>
       <c r="AC187" s="4"/>
       <c r="AD187" s="4"/>
@@ -13854,32 +14621,70 @@
     </row>
     <row r="188">
       <c r="A188" s="4"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
+      <c r="B188" s="2">
+        <v>174.0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K188" s="4"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
+      <c r="L188" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M188" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
-      <c r="S188" s="1"/>
+      <c r="S188" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T188" s="4"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
+      <c r="U188" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V188" s="4">
+        <f>8*1.55</f>
+        <v>12.4</v>
+      </c>
       <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
-      <c r="Y188" s="4"/>
+      <c r="X188" s="4">
+        <f>1.62*8</f>
+        <v>12.96</v>
+      </c>
+      <c r="Y188" s="4">
+        <f>1.58*8</f>
+        <v>12.64</v>
+      </c>
       <c r="Z188" s="4"/>
-      <c r="AA188" s="4"/>
+      <c r="AA188" s="4">
+        <f>8*0.9</f>
+        <v>7.2</v>
+      </c>
       <c r="AB188" s="4"/>
       <c r="AC188" s="4"/>
       <c r="AD188" s="4"/>
@@ -13890,32 +14695,70 @@
     </row>
     <row r="189">
       <c r="A189" s="4"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
+      <c r="B189" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K189" s="4"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
+      <c r="L189" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M189" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
-      <c r="S189" s="1"/>
+      <c r="S189" s="2">
+        <v>3.5</v>
+      </c>
       <c r="T189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
+      <c r="U189" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V189" s="4">
+        <f>8*1.56</f>
+        <v>12.48</v>
+      </c>
       <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
-      <c r="Y189" s="4"/>
+      <c r="X189" s="4">
+        <f>8*1.6</f>
+        <v>12.8</v>
+      </c>
+      <c r="Y189" s="4">
+        <f>8*1.58</f>
+        <v>12.64</v>
+      </c>
       <c r="Z189" s="4"/>
-      <c r="AA189" s="4"/>
+      <c r="AA189" s="4">
+        <f>8*0.83</f>
+        <v>6.64</v>
+      </c>
       <c r="AB189" s="4"/>
       <c r="AC189" s="4"/>
       <c r="AD189" s="4"/>
@@ -13926,32 +14769,70 @@
     </row>
     <row r="190">
       <c r="A190" s="4"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
+      <c r="B190" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K190" s="4"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
+      <c r="L190" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M190" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
-      <c r="S190" s="1"/>
+      <c r="S190" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T190" s="4"/>
-      <c r="U190" s="4"/>
-      <c r="V190" s="4"/>
+      <c r="U190" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V190" s="4">
+        <f>8*2</f>
+        <v>16</v>
+      </c>
       <c r="W190" s="4"/>
-      <c r="X190" s="4"/>
-      <c r="Y190" s="4"/>
+      <c r="X190" s="4">
+        <f t="shared" ref="X190:X191" si="91">2.17*8</f>
+        <v>17.36</v>
+      </c>
+      <c r="Y190" s="4">
+        <f t="shared" ref="Y190:Y191" si="92">2.08*8</f>
+        <v>16.64</v>
+      </c>
       <c r="Z190" s="4"/>
-      <c r="AA190" s="4"/>
+      <c r="AA190" s="4">
+        <f>8*0.64</f>
+        <v>5.12</v>
+      </c>
       <c r="AB190" s="4"/>
       <c r="AC190" s="4"/>
       <c r="AD190" s="4"/>
@@ -13962,32 +14843,69 @@
     </row>
     <row r="191">
       <c r="A191" s="4"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
+      <c r="B191" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K191" s="4"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
+      <c r="L191" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="M191" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
-      <c r="S191" s="1"/>
+      <c r="S191" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T191" s="4"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
+      <c r="U191" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V191" s="2">
+        <v>16.0</v>
+      </c>
       <c r="W191" s="4"/>
-      <c r="X191" s="4"/>
-      <c r="Y191" s="4"/>
+      <c r="X191" s="4">
+        <f t="shared" si="91"/>
+        <v>17.36</v>
+      </c>
+      <c r="Y191" s="4">
+        <f t="shared" si="92"/>
+        <v>16.64</v>
+      </c>
       <c r="Z191" s="4"/>
-      <c r="AA191" s="4"/>
+      <c r="AA191" s="4">
+        <f>0.62*8</f>
+        <v>4.96</v>
+      </c>
       <c r="AB191" s="4"/>
       <c r="AC191" s="4"/>
       <c r="AD191" s="4"/>
@@ -13998,32 +14916,69 @@
     </row>
     <row r="192">
       <c r="A192" s="4"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
+      <c r="B192" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K192" s="4"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
+      <c r="L192" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="M192" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
-      <c r="S192" s="1"/>
+      <c r="S192" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T192" s="4"/>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
+      <c r="U192" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="V192" s="2">
+        <v>16.0</v>
+      </c>
       <c r="W192" s="4"/>
-      <c r="X192" s="4"/>
-      <c r="Y192" s="4"/>
+      <c r="X192" s="4">
+        <f>8*2.18</f>
+        <v>17.44</v>
+      </c>
+      <c r="Y192" s="4">
+        <f>2.09*8</f>
+        <v>16.72</v>
+      </c>
       <c r="Z192" s="4"/>
-      <c r="AA192" s="4"/>
+      <c r="AA192" s="4">
+        <f>0.66*8</f>
+        <v>5.28</v>
+      </c>
       <c r="AB192" s="4"/>
       <c r="AC192" s="4"/>
       <c r="AD192" s="4"/>
@@ -14034,26 +14989,50 @@
     </row>
     <row r="193">
       <c r="A193" s="4"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
+      <c r="B193" s="2">
+        <v>179.0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K193" s="4"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
+      <c r="L193" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="M193" s="2"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
-      <c r="S193" s="1"/>
+      <c r="S193" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T193" s="4"/>
-      <c r="U193" s="4"/>
+      <c r="U193" s="2">
+        <v>16.0</v>
+      </c>
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
@@ -14070,26 +15049,52 @@
     </row>
     <row r="194">
       <c r="A194" s="4"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
+      <c r="B194" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2">
+        <v>0.0</v>
+      </c>
       <c r="K194" s="4"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
+      <c r="L194" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="M194" s="2">
+        <v>150.0</v>
+      </c>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
       <c r="P194" s="4"/>
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
-      <c r="S194" s="1"/>
+      <c r="S194" s="2">
+        <v>3.0</v>
+      </c>
       <c r="T194" s="4"/>
-      <c r="U194" s="4"/>
+      <c r="U194" s="2">
+        <v>16.0</v>
+      </c>
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
@@ -45753,7 +46758,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>13</v>
@@ -45774,7 +46779,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>21</v>
@@ -45821,13 +46826,13 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
@@ -45899,13 +46904,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -45977,13 +46982,13 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
@@ -46055,13 +47060,13 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -46133,13 +47138,13 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -46211,13 +47216,13 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -46289,13 +47294,13 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -46367,13 +47372,13 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -46445,13 +47450,13 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -46523,13 +47528,13 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -46601,13 +47606,13 @@
         <v>3.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -46679,13 +47684,13 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -46757,13 +47762,13 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -46835,13 +47840,13 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -46913,13 +47918,13 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -46991,13 +47996,13 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -47082,10 +48087,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -47093,7 +48098,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -47101,7 +48106,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -47109,7 +48114,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -47117,7 +48122,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -47125,15 +48130,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -47141,7 +48146,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -47149,7 +48154,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -47157,7 +48162,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -47165,7 +48170,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -47173,7 +48178,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -47181,15 +48186,15 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -47197,7 +48202,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -47205,7 +48210,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -47213,7 +48218,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -47221,7 +48226,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -47229,7 +48234,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -47237,7 +48242,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -47245,7 +48250,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -47253,7 +48258,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -47261,7 +48266,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -47269,7 +48274,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -47277,7 +48282,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -47285,7 +48290,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -13225,7 +13225,7 @@
         <v>2.0</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>51</v>
@@ -13299,7 +13299,7 @@
         <v>2.0</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>51</v>
@@ -13373,7 +13373,7 @@
         <v>2.0</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>51</v>
@@ -13447,7 +13447,7 @@
         <v>2.0</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>51</v>
@@ -13521,7 +13521,7 @@
         <v>2.0</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>51</v>
@@ -13595,7 +13595,7 @@
         <v>2.0</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>51</v>
@@ -13669,7 +13669,7 @@
         <v>2.0</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>51</v>
@@ -13743,7 +13743,7 @@
         <v>2.0</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>51</v>
@@ -13817,7 +13817,7 @@
         <v>2.0</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>51</v>
@@ -13891,7 +13891,7 @@
         <v>2.0</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>51</v>
@@ -13965,7 +13965,7 @@
         <v>2.0</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>51</v>
@@ -14039,7 +14039,7 @@
         <v>2.0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>51</v>
@@ -14113,7 +14113,7 @@
         <v>2.0</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>51</v>

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -1111,8 +1111,8 @@
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4">
-        <f>2.8*8</f>
-        <v>22.4</v>
+        <f>2.5*8</f>
+        <v>20</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="2"/>

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="88">
   <si>
     <t>date_time_nst</t>
   </si>
@@ -677,7 +677,6 @@
   <cols>
     <col hidden="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="15" max="15" width="16.75"/>
-    <col hidden="1" min="16" max="18" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -934,7 +933,7 @@
         <v>2.0</v>
       </c>
       <c r="U3" s="4">
-        <v>68.2</v>
+        <v>74.0</v>
       </c>
       <c r="V3" s="2">
         <v>17.5</v>
@@ -969,7 +968,7 @@
       </c>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="4">
-        <v>11.0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="4">
@@ -1030,7 +1029,7 @@
         <v>2.5</v>
       </c>
       <c r="U4" s="4">
-        <v>64.5</v>
+        <v>69.8</v>
       </c>
       <c r="V4" s="2">
         <v>17.5</v>
@@ -1065,7 +1064,7 @@
       </c>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="4">
-        <v>10.0</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1125,7 @@
         <v>3.0</v>
       </c>
       <c r="U5" s="4">
-        <v>64.6</v>
+        <v>70.0</v>
       </c>
       <c r="V5" s="2">
         <v>17.5</v>
@@ -1162,7 +1161,7 @@
       </c>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="4">
-        <v>10.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="6">
@@ -1223,7 +1222,7 @@
         <v>3.5</v>
       </c>
       <c r="U6" s="4">
-        <v>66.4</v>
+        <v>72.0</v>
       </c>
       <c r="V6" s="2">
         <v>17.5</v>
@@ -1259,7 +1258,7 @@
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="4">
-        <v>10.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="7">
@@ -1320,7 +1319,7 @@
         <v>4.0</v>
       </c>
       <c r="U7" s="4">
-        <v>66.4</v>
+        <v>72.0</v>
       </c>
       <c r="V7" s="2">
         <v>17.5</v>
@@ -1356,7 +1355,7 @@
       </c>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="4">
-        <v>10.6</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="8">
@@ -1417,7 +1416,7 @@
         <v>3.0</v>
       </c>
       <c r="U8" s="4">
-        <v>64.6</v>
+        <v>70.0</v>
       </c>
       <c r="V8" s="2">
         <v>17.5</v>
@@ -1453,7 +1452,7 @@
       </c>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="4">
-        <v>10.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="9">
@@ -1510,7 +1509,7 @@
         <v>3.0</v>
       </c>
       <c r="U9" s="4">
-        <v>75.9</v>
+        <v>88.0</v>
       </c>
       <c r="V9" s="2">
         <v>20.0</v>
@@ -1542,7 +1541,7 @@
       </c>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="4">
-        <v>12.2</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="10">
@@ -1603,7 +1602,7 @@
         <v>3.0</v>
       </c>
       <c r="U10" s="4">
-        <v>34.4</v>
+        <v>37.0</v>
       </c>
       <c r="V10" s="2">
         <v>12.5</v>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="4">
-        <v>4.9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="11">
@@ -1700,7 +1699,7 @@
         <v>3.5</v>
       </c>
       <c r="U11" s="4">
-        <v>34.2</v>
+        <v>36.8</v>
       </c>
       <c r="V11" s="2">
         <v>12.5</v>
@@ -1736,7 +1735,7 @@
       </c>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="4">
-        <v>4.9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="12">
@@ -1795,7 +1794,7 @@
         <v>2.5</v>
       </c>
       <c r="U12" s="4">
-        <v>35.5</v>
+        <v>38.2</v>
       </c>
       <c r="V12" s="2">
         <v>12.5</v>
@@ -1831,7 +1830,7 @@
       </c>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="4">
-        <v>5.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="13">
@@ -1888,7 +1887,7 @@
         <v>3.0</v>
       </c>
       <c r="U13" s="4">
-        <v>66.5</v>
+        <v>72.1</v>
       </c>
       <c r="V13" s="2">
         <v>17.5</v>
@@ -1925,7 +1924,7 @@
         <v>61.1</v>
       </c>
       <c r="AK13" s="4">
-        <v>10.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="14">
@@ -1982,7 +1981,7 @@
         <v>3.0</v>
       </c>
       <c r="U14" s="4">
-        <v>66.5</v>
+        <v>72.1</v>
       </c>
       <c r="V14" s="2">
         <v>17.5</v>
@@ -2025,7 +2024,7 @@
         <v>68.9</v>
       </c>
       <c r="AK14" s="4">
-        <v>10.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="15">
@@ -2082,7 +2081,7 @@
         <v>3.0</v>
       </c>
       <c r="U15" s="4">
-        <v>66.5</v>
+        <v>72.1</v>
       </c>
       <c r="V15" s="2">
         <v>17.5</v>
@@ -2126,7 +2125,7 @@
         <v>70.0</v>
       </c>
       <c r="AK15" s="4">
-        <v>10.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="16">
@@ -2183,7 +2182,7 @@
         <v>2.5</v>
       </c>
       <c r="U16" s="4">
-        <v>74.5</v>
+        <v>86.3</v>
       </c>
       <c r="V16" s="2">
         <v>20.0</v>
@@ -2218,7 +2217,7 @@
       </c>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="4">
-        <v>11.9</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="17">
@@ -2275,7 +2274,7 @@
         <v>3.5</v>
       </c>
       <c r="U17" s="4">
-        <v>77.7</v>
+        <v>90.2</v>
       </c>
       <c r="V17" s="2">
         <v>20.0</v>
@@ -2311,7 +2310,7 @@
       </c>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="4">
-        <v>12.6</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="18">
@@ -2370,7 +2369,7 @@
         <v>2.0</v>
       </c>
       <c r="U18" s="4">
-        <v>70.2</v>
+        <v>74.0</v>
       </c>
       <c r="V18" s="2">
         <v>17.5</v>
@@ -2413,7 +2412,7 @@
         <v>24.7</v>
       </c>
       <c r="AK18" s="4">
-        <v>14.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="19">
@@ -2472,7 +2471,7 @@
         <v>2.5</v>
       </c>
       <c r="U19" s="4">
-        <v>68.3</v>
+        <v>72.0</v>
       </c>
       <c r="V19" s="2">
         <v>17.5</v>
@@ -2516,7 +2515,7 @@
         <v>42.7</v>
       </c>
       <c r="AK19" s="4">
-        <v>14.3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="20">
@@ -2575,7 +2574,7 @@
         <v>3.0</v>
       </c>
       <c r="U20" s="4">
-        <v>68.3</v>
+        <v>72.1</v>
       </c>
       <c r="V20" s="2">
         <v>17.5</v>
@@ -2619,7 +2618,7 @@
         <v>68.9</v>
       </c>
       <c r="AK20" s="4">
-        <v>14.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="21">
@@ -2678,7 +2677,7 @@
         <v>3.5</v>
       </c>
       <c r="U21" s="4">
-        <v>68.3</v>
+        <v>72.0</v>
       </c>
       <c r="V21" s="2">
         <v>17.5</v>
@@ -2722,7 +2721,7 @@
         <v>103.7</v>
       </c>
       <c r="AK21" s="4">
-        <v>14.3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="22">
@@ -2781,7 +2780,7 @@
         <v>4.0</v>
       </c>
       <c r="U22" s="4">
-        <v>68.3</v>
+        <v>72.1</v>
       </c>
       <c r="V22" s="2">
         <v>17.5</v>
@@ -2825,7 +2824,7 @@
         <v>142.8</v>
       </c>
       <c r="AK22" s="4">
-        <v>14.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="23">
@@ -2884,7 +2883,7 @@
         <v>3.0</v>
       </c>
       <c r="U23" s="4">
-        <v>68.4</v>
+        <v>72.1</v>
       </c>
       <c r="V23" s="2">
         <v>17.5</v>
@@ -2928,7 +2927,7 @@
         <v>67.9</v>
       </c>
       <c r="AK23" s="4">
-        <v>14.4</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="24">
@@ -2987,7 +2986,7 @@
         <v>3.0</v>
       </c>
       <c r="U24" s="4">
-        <v>68.4</v>
+        <v>72.2</v>
       </c>
       <c r="V24" s="2">
         <v>17.5</v>
@@ -3031,7 +3030,7 @@
         <v>64.6</v>
       </c>
       <c r="AK24" s="4">
-        <v>14.5</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="25">
@@ -3090,7 +3089,7 @@
         <v>3.0</v>
       </c>
       <c r="U25" s="4">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="V25" s="2">
         <v>17.5</v>
@@ -3134,7 +3133,7 @@
         <v>62.1</v>
       </c>
       <c r="AK25" s="4">
-        <v>14.6</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="26">
@@ -3193,7 +3192,7 @@
         <v>2.5</v>
       </c>
       <c r="U26" s="4">
-        <v>36.4</v>
+        <v>38.3</v>
       </c>
       <c r="V26" s="2">
         <v>12.5</v>
@@ -3236,7 +3235,7 @@
         <v>42.2</v>
       </c>
       <c r="AK26" s="4">
-        <v>6.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="27">
@@ -3295,7 +3294,7 @@
         <v>3.0</v>
       </c>
       <c r="U27" s="4">
-        <v>35.5</v>
+        <v>37.3</v>
       </c>
       <c r="V27" s="2">
         <v>12.5</v>
@@ -3339,7 +3338,7 @@
         <v>69.2</v>
       </c>
       <c r="AK27" s="4">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="28">
@@ -3398,7 +3397,7 @@
         <v>3.5</v>
       </c>
       <c r="U28" s="4">
-        <v>34.6</v>
+        <v>36.3</v>
       </c>
       <c r="V28" s="2">
         <v>12.5</v>
@@ -3442,7 +3441,7 @@
         <v>107.9</v>
       </c>
       <c r="AK28" s="4">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="29">
@@ -3501,7 +3500,7 @@
         <v>3.0</v>
       </c>
       <c r="U29" s="4">
-        <v>66.5</v>
+        <v>70.1</v>
       </c>
       <c r="V29" s="2">
         <v>17.5</v>
@@ -3537,7 +3536,7 @@
       </c>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="4">
-        <v>13.8</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="30">
@@ -3596,7 +3595,7 @@
         <v>3.0</v>
       </c>
       <c r="U30" s="4">
-        <v>66.4</v>
+        <v>70.0</v>
       </c>
       <c r="V30" s="2">
         <v>17.5</v>
@@ -3632,7 +3631,7 @@
       </c>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="4">
-        <v>13.7</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="31">
@@ -3691,7 +3690,7 @@
         <v>3.0</v>
       </c>
       <c r="U31" s="4">
-        <v>66.4</v>
+        <v>70.0</v>
       </c>
       <c r="V31" s="2">
         <v>17.5</v>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="4">
-        <v>13.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="32">
@@ -3786,7 +3785,7 @@
         <v>2.5</v>
       </c>
       <c r="U32" s="4">
-        <v>142.1</v>
+        <v>109.0</v>
       </c>
       <c r="V32" s="2">
         <v>20.0</v>
@@ -3889,7 +3888,7 @@
         <v>3.0</v>
       </c>
       <c r="U33" s="4">
-        <v>142.3</v>
+        <v>109.1</v>
       </c>
       <c r="V33" s="2">
         <v>20.0</v>
@@ -3992,7 +3991,7 @@
         <v>3.5</v>
       </c>
       <c r="U34" s="4">
-        <v>142.5</v>
+        <v>109.2</v>
       </c>
       <c r="V34" s="2">
         <v>20.0</v>
@@ -4095,7 +4094,7 @@
         <v>3.0</v>
       </c>
       <c r="U35" s="4">
-        <v>103.6</v>
+        <v>80.2</v>
       </c>
       <c r="V35" s="2">
         <v>17.5</v>
@@ -4448,7 +4447,7 @@
         <v>2.0</v>
       </c>
       <c r="U39" s="4">
-        <v>55.8</v>
+        <v>60.4</v>
       </c>
       <c r="V39" s="2">
         <v>16.0</v>
@@ -4495,7 +4494,7 @@
         <v>22.0</v>
       </c>
       <c r="AK39" s="4">
-        <v>8.7</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="40">
@@ -4552,7 +4551,7 @@
         <v>2.5</v>
       </c>
       <c r="U40" s="4">
-        <v>55.8</v>
+        <v>60.5</v>
       </c>
       <c r="V40" s="2">
         <v>16.0</v>
@@ -4599,7 +4598,7 @@
         <v>35.0</v>
       </c>
       <c r="AK40" s="4">
-        <v>8.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="41">
@@ -4656,7 +4655,7 @@
         <v>3.0</v>
       </c>
       <c r="U41" s="4">
-        <v>55.9</v>
+        <v>60.5</v>
       </c>
       <c r="V41" s="2">
         <v>16.0</v>
@@ -4703,7 +4702,7 @@
         <v>54.0</v>
       </c>
       <c r="AK41" s="4">
-        <v>8.8</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="42">
@@ -4760,7 +4759,7 @@
         <v>3.5</v>
       </c>
       <c r="U42" s="4">
-        <v>55.9</v>
+        <v>60.5</v>
       </c>
       <c r="V42" s="2">
         <v>16.0</v>
@@ -4807,7 +4806,7 @@
         <v>82.0</v>
       </c>
       <c r="AK42" s="4">
-        <v>8.8</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="43">
@@ -4864,7 +4863,7 @@
         <v>4.0</v>
       </c>
       <c r="U43" s="4">
-        <v>55.9</v>
+        <v>60.5</v>
       </c>
       <c r="V43" s="2">
         <v>16.0</v>
@@ -4911,7 +4910,7 @@
         <v>115.0</v>
       </c>
       <c r="AK43" s="4">
-        <v>8.8</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="44">
@@ -4968,7 +4967,7 @@
         <v>3.0</v>
       </c>
       <c r="U44" s="4">
-        <v>55.9</v>
+        <v>60.5</v>
       </c>
       <c r="V44" s="2">
         <v>16.0</v>
@@ -5015,7 +5014,7 @@
         <v>54.0</v>
       </c>
       <c r="AK44" s="4">
-        <v>8.8</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="45">
@@ -5072,7 +5071,7 @@
         <v>3.0</v>
       </c>
       <c r="U45" s="4">
-        <v>55.9</v>
+        <v>60.5</v>
       </c>
       <c r="V45" s="2">
         <v>16.0</v>
@@ -5121,7 +5120,7 @@
         <v>52.0</v>
       </c>
       <c r="AK45" s="4">
-        <v>8.8</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="46">
@@ -5178,7 +5177,7 @@
         <v>2.5</v>
       </c>
       <c r="U46" s="4">
-        <v>48.8</v>
+        <v>52.8</v>
       </c>
       <c r="V46" s="2">
         <v>14.5</v>
@@ -5224,7 +5223,7 @@
         <v>36.0</v>
       </c>
       <c r="AK46" s="4">
-        <v>7.6</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="47">
@@ -5281,7 +5280,7 @@
         <v>3.0</v>
       </c>
       <c r="U47" s="4">
-        <v>48.8</v>
+        <v>52.8</v>
       </c>
       <c r="V47" s="2">
         <v>14.5</v>
@@ -5327,7 +5326,7 @@
         <v>53.0</v>
       </c>
       <c r="AK47" s="4">
-        <v>7.6</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="48">
@@ -5384,7 +5383,7 @@
         <v>3.5</v>
       </c>
       <c r="U48" s="4">
-        <v>48.8</v>
+        <v>52.8</v>
       </c>
       <c r="V48" s="2">
         <v>14.5</v>
@@ -5430,7 +5429,7 @@
         <v>77.0</v>
       </c>
       <c r="AK48" s="4">
-        <v>7.6</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="49">
@@ -5487,7 +5486,7 @@
         <v>2.5</v>
       </c>
       <c r="U49" s="4">
-        <v>55.9</v>
+        <v>70.2</v>
       </c>
       <c r="V49" s="2">
         <v>17.5</v>
@@ -5534,7 +5533,7 @@
         <v>55.0</v>
       </c>
       <c r="AK49" s="4">
-        <v>8.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="50">
@@ -5591,7 +5590,7 @@
         <v>3.0</v>
       </c>
       <c r="U50" s="4">
-        <v>55.9</v>
+        <v>70.2</v>
       </c>
       <c r="V50" s="2">
         <v>17.5</v>
@@ -5638,7 +5637,7 @@
         <v>55.0</v>
       </c>
       <c r="AK50" s="4">
-        <v>8.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="51">
@@ -5695,7 +5694,7 @@
         <v>3.5</v>
       </c>
       <c r="U51" s="4">
-        <v>55.9</v>
+        <v>70.2</v>
       </c>
       <c r="V51" s="2">
         <v>17.5</v>
@@ -5742,7 +5741,7 @@
         <v>58.0</v>
       </c>
       <c r="AK51" s="4">
-        <v>8.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="52">
@@ -5799,7 +5798,7 @@
         <v>3.0</v>
       </c>
       <c r="U52" s="4">
-        <v>64.7</v>
+        <v>60.5</v>
       </c>
       <c r="V52" s="2">
         <v>16.0</v>
@@ -5846,7 +5845,7 @@
         <v>40.0</v>
       </c>
       <c r="AK52" s="4">
-        <v>10.4</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="53">
@@ -5903,7 +5902,7 @@
         <v>3.0</v>
       </c>
       <c r="U53" s="4">
-        <v>64.7</v>
+        <v>60.5</v>
       </c>
       <c r="V53" s="2">
         <v>16.0</v>
@@ -5950,7 +5949,7 @@
         <v>62.0</v>
       </c>
       <c r="AK53" s="4">
-        <v>10.4</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="54">
@@ -6007,7 +6006,7 @@
         <v>3.0</v>
       </c>
       <c r="U54" s="4">
-        <v>64.7</v>
+        <v>60.5</v>
       </c>
       <c r="V54" s="2">
         <v>16.0</v>
@@ -6054,7 +6053,7 @@
         <v>90.0</v>
       </c>
       <c r="AK54" s="4">
-        <v>10.4</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="55">
@@ -6113,7 +6112,7 @@
         <v>2.0</v>
       </c>
       <c r="U55" s="4">
-        <v>59.2</v>
+        <v>62.4</v>
       </c>
       <c r="V55" s="2">
         <v>16.0</v>
@@ -6160,7 +6159,7 @@
         <v>36.0</v>
       </c>
       <c r="AK55" s="4">
-        <v>12.2</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="56">
@@ -6219,7 +6218,7 @@
         <v>2.5</v>
       </c>
       <c r="U56" s="4">
-        <v>59.2</v>
+        <v>62.5</v>
       </c>
       <c r="V56" s="2">
         <v>16.0</v>
@@ -6266,7 +6265,7 @@
         <v>38.0</v>
       </c>
       <c r="AK56" s="4">
-        <v>12.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="57">
@@ -6325,7 +6324,7 @@
         <v>3.0</v>
       </c>
       <c r="U57" s="4">
-        <v>59.3</v>
+        <v>62.5</v>
       </c>
       <c r="V57" s="2">
         <v>16.0</v>
@@ -6372,7 +6371,7 @@
         <v>61.0</v>
       </c>
       <c r="AK57" s="4">
-        <v>12.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="58">
@@ -6431,7 +6430,7 @@
         <v>3.5</v>
       </c>
       <c r="U58" s="4">
-        <v>59.2</v>
+        <v>62.5</v>
       </c>
       <c r="V58" s="2">
         <v>16.0</v>
@@ -6478,7 +6477,7 @@
         <v>92.0</v>
       </c>
       <c r="AK58" s="4">
-        <v>12.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="59">
@@ -6537,7 +6536,7 @@
         <v>4.0</v>
       </c>
       <c r="U59" s="4">
-        <v>59.2</v>
+        <v>62.5</v>
       </c>
       <c r="V59" s="2">
         <v>16.0</v>
@@ -6584,7 +6583,7 @@
         <v>130.0</v>
       </c>
       <c r="AK59" s="4">
-        <v>12.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="60">
@@ -6643,7 +6642,7 @@
         <v>3.0</v>
       </c>
       <c r="U60" s="4">
-        <v>59.3</v>
+        <v>62.5</v>
       </c>
       <c r="V60" s="2">
         <v>16.0</v>
@@ -6690,7 +6689,7 @@
         <v>59.0</v>
       </c>
       <c r="AK60" s="4">
-        <v>12.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="61">
@@ -6749,7 +6748,7 @@
         <v>3.0</v>
       </c>
       <c r="U61" s="4">
-        <v>59.3</v>
+        <v>62.5</v>
       </c>
       <c r="V61" s="2">
         <v>16.0</v>
@@ -6796,7 +6795,7 @@
         <v>60.0</v>
       </c>
       <c r="AK61" s="4">
-        <v>12.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="62">
@@ -6855,7 +6854,7 @@
         <v>3.0</v>
       </c>
       <c r="U62" s="4">
-        <v>59.3</v>
+        <v>62.5</v>
       </c>
       <c r="V62" s="2">
         <v>16.0</v>
@@ -6902,7 +6901,7 @@
         <v>58.0</v>
       </c>
       <c r="AK62" s="4">
-        <v>12.3</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="63">
@@ -6961,7 +6960,7 @@
         <v>3.0</v>
       </c>
       <c r="U63" s="4">
-        <v>59.3</v>
+        <v>62.5</v>
       </c>
       <c r="V63" s="2">
         <v>16.0</v>
@@ -7010,7 +7009,7 @@
         <v>54.0</v>
       </c>
       <c r="AK63" s="4">
-        <v>12.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="64">
@@ -7069,7 +7068,7 @@
         <v>2.5</v>
       </c>
       <c r="U64" s="4">
-        <v>50.2</v>
+        <v>52.8</v>
       </c>
       <c r="V64" s="2">
         <v>14.5</v>
@@ -7116,7 +7115,7 @@
         <v>38.0</v>
       </c>
       <c r="AK64" s="4">
-        <v>10.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="65">
@@ -7175,7 +7174,7 @@
         <v>3.0</v>
       </c>
       <c r="U65" s="4">
-        <v>50.2</v>
+        <v>52.8</v>
       </c>
       <c r="V65" s="2">
         <v>14.5</v>
@@ -7222,7 +7221,7 @@
         <v>58.0</v>
       </c>
       <c r="AK65" s="4">
-        <v>10.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="66">
@@ -7281,7 +7280,7 @@
         <v>3.5</v>
       </c>
       <c r="U66" s="4">
-        <v>50.2</v>
+        <v>52.8</v>
       </c>
       <c r="V66" s="2">
         <v>14.5</v>
@@ -7328,7 +7327,7 @@
         <v>84.0</v>
       </c>
       <c r="AK66" s="4">
-        <v>10.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="67">
@@ -7387,7 +7386,7 @@
         <v>2.5</v>
       </c>
       <c r="U67" s="4">
-        <v>68.4</v>
+        <v>72.2</v>
       </c>
       <c r="V67" s="2">
         <v>17.5</v>
@@ -7434,7 +7433,7 @@
         <v>43.0</v>
       </c>
       <c r="AK67" s="4">
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="68">
@@ -7493,7 +7492,7 @@
         <v>3.0</v>
       </c>
       <c r="U68" s="4">
-        <v>68.4</v>
+        <v>72.2</v>
       </c>
       <c r="V68" s="2">
         <v>17.5</v>
@@ -7540,7 +7539,7 @@
         <v>68.0</v>
       </c>
       <c r="AK68" s="4">
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="69">
@@ -7569,8 +7568,12 @@
       <c r="I69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="J69" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="8">
+        <v>215.7</v>
+      </c>
       <c r="L69" s="3">
         <v>0.0</v>
       </c>
@@ -7594,7 +7597,9 @@
       <c r="T69" s="1">
         <v>3.5</v>
       </c>
-      <c r="U69" s="3"/>
+      <c r="U69" s="4">
+        <v>72.1</v>
+      </c>
       <c r="V69" s="2">
         <v>17.5</v>
       </c>
@@ -7619,15 +7624,29 @@
         <f>0.36*8</f>
         <v>2.88</v>
       </c>
-      <c r="AC69" s="6"/>
+      <c r="AC69" s="8">
+        <v>2.0</v>
+      </c>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
-      <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
-      <c r="AH69" s="6"/>
-      <c r="AI69" s="6"/>
-      <c r="AJ69" s="6"/>
-      <c r="AK69" s="6"/>
+      <c r="AF69" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="AG69" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="AH69" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="AI69" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="AJ69" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="AK69" s="4">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
@@ -7683,7 +7702,7 @@
         <v>2.5</v>
       </c>
       <c r="U70" s="4">
-        <v>66.4</v>
+        <v>72.0</v>
       </c>
       <c r="V70" s="2">
         <v>17.5</v>
@@ -7727,7 +7746,7 @@
         <v>41.3</v>
       </c>
       <c r="AK70" s="4">
-        <v>10.6</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="71">
@@ -7784,7 +7803,7 @@
         <v>3.0</v>
       </c>
       <c r="U71" s="4">
-        <v>66.4</v>
+        <v>72.0</v>
       </c>
       <c r="V71" s="2">
         <v>17.5</v>
@@ -7828,7 +7847,7 @@
         <v>67.9</v>
       </c>
       <c r="AK71" s="4">
-        <v>10.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="72">
@@ -7885,7 +7904,7 @@
         <v>3.5</v>
       </c>
       <c r="U72" s="4">
-        <v>66.4</v>
+        <v>71.9</v>
       </c>
       <c r="V72" s="2">
         <v>17.5</v>
@@ -7929,7 +7948,7 @@
         <v>95.7</v>
       </c>
       <c r="AK72" s="4">
-        <v>10.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="73">
@@ -7986,7 +8005,7 @@
         <v>4.0</v>
       </c>
       <c r="U73" s="4">
-        <v>66.4</v>
+        <v>72.0</v>
       </c>
       <c r="V73" s="2">
         <v>17.5</v>
@@ -8030,7 +8049,7 @@
         <v>136.9</v>
       </c>
       <c r="AK73" s="4">
-        <v>10.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="74">
@@ -8087,7 +8106,7 @@
         <v>2.0</v>
       </c>
       <c r="U74" s="4">
-        <v>67.3</v>
+        <v>73.0</v>
       </c>
       <c r="V74" s="2">
         <v>17.5</v>
@@ -8131,7 +8150,7 @@
         <v>47.2</v>
       </c>
       <c r="AK74" s="4">
-        <v>10.8</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="75">

--- a/analysis/flume_tank/data/flume_tank_data.xlsx
+++ b/analysis/flume_tank/data/flume_tank_data.xlsx
@@ -16052,10 +16052,10 @@
         <v>0</v>
       </c>
       <c r="J150" s="4">
-        <v>21.0</v>
+        <v>47.0</v>
       </c>
       <c r="K150" s="4">
-        <v>52.4</v>
+        <v>117.8</v>
       </c>
       <c r="L150" s="2">
         <v>0.0</v>
@@ -17130,7 +17130,7 @@
         <v>2.5</v>
       </c>
       <c r="U160" s="4">
-        <v>55.8</v>
+        <v>78.7</v>
       </c>
       <c r="V160" s="2">
         <v>17.5</v>
@@ -17176,7 +17176,7 @@
         <v>44.5</v>
       </c>
       <c r="AK160" s="4">
-        <v>14.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="161">
@@ -17235,7 +17235,7 @@
         <v>3.0</v>
       </c>
       <c r="U161" s="4">
-        <v>55.8</v>
+        <v>78.7</v>
       </c>
       <c r="V161" s="2">
         <v>17.5</v>
@@ -17281,7 +17281,7 @@
         <v>67.0</v>
       </c>
       <c r="AK161" s="4">
-        <v>14.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="162">
@@ -17340,7 +17340,7 @@
         <v>3.5</v>
       </c>
       <c r="U162" s="4">
-        <v>55.8</v>
+        <v>78.7</v>
       </c>
       <c r="V162" s="2">
         <v>17.5</v>
@@ -17386,7 +17386,7 @@
         <v>98.6</v>
       </c>
       <c r="AK162" s="4">
-        <v>14.8</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="163">
@@ -17416,10 +17416,10 @@
         <v>0</v>
       </c>
       <c r="J163" s="4">
-        <v>21.0</v>
+        <v>47.0</v>
       </c>
       <c r="K163" s="4">
-        <v>52.4</v>
+        <v>117.8</v>
       </c>
       <c r="L163" s="2">
         <v>0.0</v>
@@ -17445,7 +17445,7 @@
         <v>2.5</v>
       </c>
       <c r="U163" s="4">
-        <v>70.2</v>
+        <v>100.1</v>
       </c>
       <c r="V163" s="2">
         <v>20.0</v>
@@ -17491,7 +17491,7 @@
         <v>51.5</v>
       </c>
       <c r="AK163" s="4">
-        <v>19.6</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="164">
@@ -17550,7 +17550,7 @@
         <v>3.0</v>
       </c>
       <c r="U164" s="4">
-        <v>70.2</v>
+        <v>100.1</v>
       </c>
       <c r="V164" s="2">
         <v>20.0</v>
@@ -17596,7 +17596,7 @@
         <v>79.3</v>
       </c>
       <c r="AK164" s="4">
-        <v>19.6</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="165">
@@ -17655,7 +17655,7 @@
         <v>3.5</v>
       </c>
       <c r="U165" s="4">
-        <v>70.2</v>
+        <v>100.1</v>
       </c>
       <c r="V165" s="2">
         <v>20.0</v>
@@ -17701,7 +17701,7 @@
         <v>117.0</v>
       </c>
       <c r="AK165" s="4">
-        <v>19.5</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="166">
@@ -18075,7 +18075,7 @@
         <v>2.5</v>
       </c>
       <c r="U169" s="4">
-        <v>71.2</v>
+        <v>101.7</v>
       </c>
       <c r="V169" s="2">
         <v>20.0</v>
@@ -18121,7 +18121,7 @@
         <v>51.4</v>
       </c>
       <c r="AK169" s="4">
-        <v>20.0</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="170">
@@ -18180,7 +18180,7 @@
         <v>3.0</v>
       </c>
       <c r="U170" s="4">
-        <v>71.3</v>
+        <v>101.9</v>
       </c>
       <c r="V170" s="2">
         <v>20.0</v>
@@ -18226,7 +18226,7 @@
         <v>78.6</v>
       </c>
       <c r="AK170" s="4">
-        <v>20.1</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="171">
@@ -18285,7 +18285,7 @@
         <v>3.5</v>
       </c>
       <c r="U171" s="4">
-        <v>71.2</v>
+        <v>101.8</v>
       </c>
       <c r="V171" s="2">
         <v>20.0</v>
@@ -18331,7 +18331,7 @@
         <v>114.0</v>
       </c>
       <c r="AK171" s="4">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="172">
@@ -18390,7 +18390,7 @@
         <v>2.0</v>
       </c>
       <c r="U172" s="4">
-        <v>57.8</v>
+        <v>81.9</v>
       </c>
       <c r="V172" s="2">
         <v>17.5</v>
@@ -18436,7 +18436,7 @@
         <v>28.9</v>
       </c>
       <c r="AK172" s="4">
-        <v>15.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="173">
@@ -18495,7 +18495,7 @@
         <v>2.5</v>
       </c>
       <c r="U173" s="4">
-        <v>57.8</v>
+        <v>82.0</v>
       </c>
       <c r="V173" s="2">
         <v>17.5</v>
@@ -18541,7 +18541,7 @@
         <v>45.7</v>
       </c>
       <c r="AK173" s="4">
-        <v>15.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="174">
@@ -18600,7 +18600,7 @@
         <v>3.0</v>
       </c>
       <c r="U174" s="4">
-        <v>56.9</v>
+        <v>80.5</v>
       </c>
       <c r="V174" s="2">
         <v>17.5</v>
@@ -18646,7 +18646,7 @@
         <v>69.6</v>
       </c>
       <c r="AK174" s="4">
-        <v>15.3</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="175">
@@ -18705,7 +18705,7 @@
         <v>3.5</v>
       </c>
       <c r="U175" s="4">
-        <v>56.9</v>
+        <v>80.5</v>
       </c>
       <c r="V175" s="2">
         <v>17.5</v>
@@ -18751,7 +18751,7 @@
         <v>98.5</v>
       </c>
       <c r="AK175" s="4">
-        <v>15.3</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="176">
@@ -18810,7 +18810,7 @@
         <v>4.0</v>
       </c>
       <c r="U176" s="4">
-        <v>56.9</v>
+        <v>80.5</v>
       </c>
       <c r="V176" s="2">
         <v>17.5</v>
@@ -18856,7 +18856,7 @@
         <v>144.0</v>
       </c>
       <c r="AK176" s="4">
-        <v>15.3</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="177">
